--- a/cea/databases/CH/Archetypes/Archetypes_properties.xlsx
+++ b/cea/databases/CH/Archetypes/Archetypes_properties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JF\Documents\CEAforArcGIS\cea\databases\CH\Archetypes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jimeno\Documents\CEAforArcGIS\cea\databases\CH\Archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1768,23 +1768,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L181"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="18.1328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.1328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.86328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="10.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="12.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
         <v>29</v>
       </c>
@@ -1854,13 +1854,13 @@
         <v>18</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="13" t="s">
         <v>30</v>
       </c>
@@ -1892,13 +1892,13 @@
         <v>18</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="13" t="s">
         <v>31</v>
       </c>
@@ -1930,13 +1930,13 @@
         <v>18</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="13" t="s">
         <v>32</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="13" t="s">
         <v>33</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="13" t="s">
         <v>34</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="13" t="s">
         <v>35</v>
       </c>
@@ -2082,13 +2082,13 @@
         <v>18</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="13" t="s">
         <v>36</v>
       </c>
@@ -2120,13 +2120,13 @@
         <v>18</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="13" t="s">
         <v>37</v>
       </c>
@@ -2158,13 +2158,13 @@
         <v>18</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="13" t="s">
         <v>38</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="13" t="s">
         <v>39</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="13" t="s">
         <v>40</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="13" t="s">
         <v>53</v>
       </c>
@@ -2310,13 +2310,13 @@
         <v>18</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="13" t="s">
         <v>54</v>
       </c>
@@ -2348,13 +2348,13 @@
         <v>18</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="13" t="s">
         <v>55</v>
       </c>
@@ -2386,13 +2386,13 @@
         <v>18</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="13" t="s">
         <v>56</v>
       </c>
@@ -2424,13 +2424,13 @@
         <v>20</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="13" t="s">
         <v>57</v>
       </c>
@@ -2462,13 +2462,13 @@
         <v>20</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="13" t="s">
         <v>58</v>
       </c>
@@ -2500,13 +2500,13 @@
         <v>25</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="13" t="s">
         <v>59</v>
       </c>
@@ -2538,13 +2538,13 @@
         <v>18</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="13" t="s">
         <v>60</v>
       </c>
@@ -2576,13 +2576,13 @@
         <v>18</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="13" t="s">
         <v>61</v>
       </c>
@@ -2614,13 +2614,13 @@
         <v>18</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="13" t="s">
         <v>62</v>
       </c>
@@ -2652,13 +2652,13 @@
         <v>20</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="13" t="s">
         <v>63</v>
       </c>
@@ -2690,13 +2690,13 @@
         <v>20</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="13" t="s">
         <v>64</v>
       </c>
@@ -2728,13 +2728,13 @@
         <v>25</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" s="13" t="s">
         <v>41</v>
       </c>
@@ -2767,13 +2767,13 @@
         <v>18</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="13" t="s">
         <v>42</v>
       </c>
@@ -2806,13 +2806,13 @@
         <v>18</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" s="13" t="s">
         <v>43</v>
       </c>
@@ -2845,13 +2845,13 @@
         <v>18</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" s="13" t="s">
         <v>44</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" s="13" t="s">
         <v>45</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" s="13" t="s">
         <v>46</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" s="13" t="s">
         <v>47</v>
       </c>
@@ -3001,13 +3001,13 @@
         <v>18</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33" s="13" t="s">
         <v>48</v>
       </c>
@@ -3040,13 +3040,13 @@
         <v>18</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34" s="13" t="s">
         <v>49</v>
       </c>
@@ -3079,13 +3079,13 @@
         <v>18</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35" s="13" t="s">
         <v>50</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36" s="13" t="s">
         <v>51</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37" s="13" t="s">
         <v>52</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A38" s="13" t="s">
         <v>65</v>
       </c>
@@ -3234,13 +3234,13 @@
         <v>18</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A39" s="13" t="s">
         <v>66</v>
       </c>
@@ -3272,13 +3272,13 @@
         <v>18</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40" s="13" t="s">
         <v>67</v>
       </c>
@@ -3310,13 +3310,13 @@
         <v>18</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41" s="13" t="s">
         <v>68</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42" s="13" t="s">
         <v>69</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A43" s="13" t="s">
         <v>70</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A44" s="13" t="s">
         <v>71</v>
       </c>
@@ -3462,13 +3462,13 @@
         <v>18</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A45" s="13" t="s">
         <v>72</v>
       </c>
@@ -3500,13 +3500,13 @@
         <v>18</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A46" s="13" t="s">
         <v>73</v>
       </c>
@@ -3538,13 +3538,13 @@
         <v>18</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A47" s="13" t="s">
         <v>74</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A48" s="13" t="s">
         <v>75</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A49" s="13" t="s">
         <v>76</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A50" s="13" t="s">
         <v>77</v>
       </c>
@@ -3690,13 +3690,13 @@
         <v>18</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L50" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A51" s="13" t="s">
         <v>78</v>
       </c>
@@ -3728,13 +3728,13 @@
         <v>18</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L51" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A52" s="13" t="s">
         <v>79</v>
       </c>
@@ -3766,13 +3766,13 @@
         <v>18</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A53" s="13" t="s">
         <v>80</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A54" s="13" t="s">
         <v>81</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A55" s="13" t="s">
         <v>82</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A56" s="13" t="s">
         <v>83</v>
       </c>
@@ -3918,13 +3918,13 @@
         <v>18</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L56" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A57" s="13" t="s">
         <v>84</v>
       </c>
@@ -3956,13 +3956,13 @@
         <v>18</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A58" s="13" t="s">
         <v>85</v>
       </c>
@@ -3994,13 +3994,13 @@
         <v>18</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A59" s="13" t="s">
         <v>86</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A60" s="13" t="s">
         <v>87</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A61" s="13" t="s">
         <v>88</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A62" s="13" t="s">
         <v>245</v>
       </c>
@@ -4146,13 +4146,13 @@
         <v>18</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A63" s="13" t="s">
         <v>246</v>
       </c>
@@ -4184,13 +4184,13 @@
         <v>18</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L63" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A64" s="13" t="s">
         <v>247</v>
       </c>
@@ -4222,13 +4222,13 @@
         <v>18</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L64" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A65" s="13" t="s">
         <v>248</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A66" s="13" t="s">
         <v>249</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A67" s="13" t="s">
         <v>250</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A68" s="13" t="s">
         <v>251</v>
       </c>
@@ -4374,13 +4374,13 @@
         <v>18</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L68" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A69" s="13" t="s">
         <v>252</v>
       </c>
@@ -4412,13 +4412,13 @@
         <v>18</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L69" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A70" s="13" t="s">
         <v>253</v>
       </c>
@@ -4450,13 +4450,13 @@
         <v>18</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L70" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A71" s="13" t="s">
         <v>254</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A72" s="13" t="s">
         <v>255</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A73" s="13" t="s">
         <v>256</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A74" s="13" t="s">
         <v>101</v>
       </c>
@@ -4602,13 +4602,13 @@
         <v>18</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L74" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A75" s="13" t="s">
         <v>102</v>
       </c>
@@ -4640,13 +4640,13 @@
         <v>18</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L75" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A76" s="13" t="s">
         <v>103</v>
       </c>
@@ -4678,13 +4678,13 @@
         <v>18</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A77" s="13" t="s">
         <v>104</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A78" s="13" t="s">
         <v>105</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A79" s="13" t="s">
         <v>106</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A80" s="13" t="s">
         <v>107</v>
       </c>
@@ -4830,13 +4830,13 @@
         <v>18</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L80" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A81" s="13" t="s">
         <v>108</v>
       </c>
@@ -4868,13 +4868,13 @@
         <v>18</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A82" s="13" t="s">
         <v>109</v>
       </c>
@@ -4906,13 +4906,13 @@
         <v>18</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L82" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A83" s="13" t="s">
         <v>110</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A84" s="13" t="s">
         <v>111</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A85" s="13" t="s">
         <v>112</v>
       </c>
@@ -5026,7 +5026,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A86" s="13" t="s">
         <v>113</v>
       </c>
@@ -5058,13 +5058,13 @@
         <v>18</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L86" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A87" s="13" t="s">
         <v>114</v>
       </c>
@@ -5096,13 +5096,13 @@
         <v>18</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L87" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A88" s="13" t="s">
         <v>115</v>
       </c>
@@ -5134,13 +5134,13 @@
         <v>18</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L88" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A89" s="13" t="s">
         <v>116</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A90" s="13" t="s">
         <v>117</v>
       </c>
@@ -5216,7 +5216,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A91" s="13" t="s">
         <v>118</v>
       </c>
@@ -5254,7 +5254,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A92" s="13" t="s">
         <v>119</v>
       </c>
@@ -5286,13 +5286,13 @@
         <v>18</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L92" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A93" s="13" t="s">
         <v>120</v>
       </c>
@@ -5324,13 +5324,13 @@
         <v>18</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L93" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A94" s="13" t="s">
         <v>121</v>
       </c>
@@ -5362,13 +5362,13 @@
         <v>18</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A95" s="13" t="s">
         <v>122</v>
       </c>
@@ -5406,7 +5406,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A96" s="13" t="s">
         <v>123</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A97" s="13" t="s">
         <v>124</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A98" s="13" t="s">
         <v>125</v>
       </c>
@@ -5514,13 +5514,13 @@
         <v>18</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L98" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A99" s="13" t="s">
         <v>126</v>
       </c>
@@ -5552,13 +5552,13 @@
         <v>18</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L99" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A100" s="13" t="s">
         <v>127</v>
       </c>
@@ -5590,13 +5590,13 @@
         <v>18</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A101" s="13" t="s">
         <v>128</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A102" s="13" t="s">
         <v>129</v>
       </c>
@@ -5672,7 +5672,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A103" s="13" t="s">
         <v>130</v>
       </c>
@@ -5710,7 +5710,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A104" s="13" t="s">
         <v>131</v>
       </c>
@@ -5742,13 +5742,13 @@
         <v>18</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L104" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A105" s="13" t="s">
         <v>132</v>
       </c>
@@ -5780,13 +5780,13 @@
         <v>18</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L105" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A106" s="13" t="s">
         <v>133</v>
       </c>
@@ -5818,13 +5818,13 @@
         <v>18</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L106" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A107" s="13" t="s">
         <v>134</v>
       </c>
@@ -5862,7 +5862,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A108" s="13" t="s">
         <v>135</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A109" s="13" t="s">
         <v>136</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A110" s="13" t="s">
         <v>137</v>
       </c>
@@ -5970,13 +5970,13 @@
         <v>18</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L110" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A111" s="13" t="s">
         <v>138</v>
       </c>
@@ -6008,13 +6008,13 @@
         <v>18</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L111" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A112" s="13" t="s">
         <v>139</v>
       </c>
@@ -6046,13 +6046,13 @@
         <v>18</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L112" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A113" s="13" t="s">
         <v>140</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A114" s="13" t="s">
         <v>141</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A115" s="13" t="s">
         <v>142</v>
       </c>
@@ -6166,7 +6166,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A116" s="13" t="s">
         <v>143</v>
       </c>
@@ -6198,13 +6198,13 @@
         <v>18</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L116" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A117" s="13" t="s">
         <v>144</v>
       </c>
@@ -6236,13 +6236,13 @@
         <v>18</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L117" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A118" s="13" t="s">
         <v>145</v>
       </c>
@@ -6274,13 +6274,13 @@
         <v>18</v>
       </c>
       <c r="K118" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L118" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A119" s="13" t="s">
         <v>146</v>
       </c>
@@ -6318,7 +6318,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A120" s="13" t="s">
         <v>147</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A121" s="13" t="s">
         <v>148</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A122" s="13" t="s">
         <v>149</v>
       </c>
@@ -6426,13 +6426,13 @@
         <v>18</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L122" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A123" s="13" t="s">
         <v>150</v>
       </c>
@@ -6464,13 +6464,13 @@
         <v>18</v>
       </c>
       <c r="K123" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L123" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A124" s="13" t="s">
         <v>151</v>
       </c>
@@ -6502,13 +6502,13 @@
         <v>18</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L124" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A125" s="13" t="s">
         <v>152</v>
       </c>
@@ -6546,7 +6546,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A126" s="13" t="s">
         <v>153</v>
       </c>
@@ -6584,7 +6584,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A127" s="13" t="s">
         <v>154</v>
       </c>
@@ -6622,7 +6622,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A128" s="13" t="s">
         <v>155</v>
       </c>
@@ -6654,13 +6654,13 @@
         <v>18</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L128" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A129" s="13" t="s">
         <v>156</v>
       </c>
@@ -6692,13 +6692,13 @@
         <v>18</v>
       </c>
       <c r="K129" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L129" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A130" s="13" t="s">
         <v>157</v>
       </c>
@@ -6730,13 +6730,13 @@
         <v>18</v>
       </c>
       <c r="K130" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L130" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A131" s="13" t="s">
         <v>158</v>
       </c>
@@ -6774,7 +6774,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A132" s="13" t="s">
         <v>159</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A133" s="13" t="s">
         <v>160</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A134" s="13" t="s">
         <v>161</v>
       </c>
@@ -6888,7 +6888,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A135" s="13" t="s">
         <v>162</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A136" s="13" t="s">
         <v>163</v>
       </c>
@@ -6964,7 +6964,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A137" s="13" t="s">
         <v>164</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A138" s="13" t="s">
         <v>165</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A139" s="13" t="s">
         <v>166</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A140" s="13" t="s">
         <v>167</v>
       </c>
@@ -7116,7 +7116,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A141" s="13" t="s">
         <v>168</v>
       </c>
@@ -7154,7 +7154,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A142" s="13" t="s">
         <v>169</v>
       </c>
@@ -7192,7 +7192,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A143" s="13" t="s">
         <v>170</v>
       </c>
@@ -7230,7 +7230,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A144" s="13" t="s">
         <v>171</v>
       </c>
@@ -7268,7 +7268,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A145" s="13" t="s">
         <v>172</v>
       </c>
@@ -7306,7 +7306,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A146" s="13" t="s">
         <v>173</v>
       </c>
@@ -7338,13 +7338,13 @@
         <v>18</v>
       </c>
       <c r="K146" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L146" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A147" s="13" t="s">
         <v>174</v>
       </c>
@@ -7376,13 +7376,13 @@
         <v>18</v>
       </c>
       <c r="K147" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L147" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A148" s="13" t="s">
         <v>175</v>
       </c>
@@ -7414,13 +7414,13 @@
         <v>18</v>
       </c>
       <c r="K148" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L148" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A149" s="13" t="s">
         <v>176</v>
       </c>
@@ -7458,7 +7458,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A150" s="13" t="s">
         <v>177</v>
       </c>
@@ -7496,7 +7496,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A151" s="13" t="s">
         <v>178</v>
       </c>
@@ -7534,7 +7534,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A152" s="13" t="s">
         <v>179</v>
       </c>
@@ -7566,13 +7566,13 @@
         <v>18</v>
       </c>
       <c r="K152" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L152" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A153" s="13" t="s">
         <v>180</v>
       </c>
@@ -7604,13 +7604,13 @@
         <v>18</v>
       </c>
       <c r="K153" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L153" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A154" s="13" t="s">
         <v>181</v>
       </c>
@@ -7642,13 +7642,13 @@
         <v>18</v>
       </c>
       <c r="K154" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L154" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A155" s="13" t="s">
         <v>182</v>
       </c>
@@ -7686,7 +7686,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A156" s="13" t="s">
         <v>183</v>
       </c>
@@ -7724,7 +7724,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A157" s="13" t="s">
         <v>184</v>
       </c>
@@ -7762,7 +7762,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A158" s="13" t="s">
         <v>185</v>
       </c>
@@ -7800,7 +7800,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A159" s="13" t="s">
         <v>186</v>
       </c>
@@ -7838,7 +7838,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A160" s="13" t="s">
         <v>187</v>
       </c>
@@ -7876,7 +7876,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A161" s="13" t="s">
         <v>188</v>
       </c>
@@ -7914,7 +7914,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A162" s="13" t="s">
         <v>189</v>
       </c>
@@ -7952,7 +7952,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A163" s="13" t="s">
         <v>190</v>
       </c>
@@ -7990,7 +7990,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A164" s="13" t="s">
         <v>191</v>
       </c>
@@ -8028,7 +8028,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A165" s="13" t="s">
         <v>192</v>
       </c>
@@ -8066,7 +8066,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A166" s="13" t="s">
         <v>193</v>
       </c>
@@ -8104,7 +8104,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A167" s="13" t="s">
         <v>194</v>
       </c>
@@ -8142,7 +8142,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A168" s="13" t="s">
         <v>195</v>
       </c>
@@ -8180,7 +8180,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A169" s="13" t="s">
         <v>196</v>
       </c>
@@ -8218,7 +8218,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A170" s="13" t="s">
         <v>197</v>
       </c>
@@ -8256,7 +8256,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A171" s="13" t="s">
         <v>198</v>
       </c>
@@ -8294,7 +8294,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A172" s="13" t="s">
         <v>199</v>
       </c>
@@ -8332,7 +8332,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A173" s="13" t="s">
         <v>200</v>
       </c>
@@ -8370,7 +8370,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A174" s="13" t="s">
         <v>201</v>
       </c>
@@ -8408,7 +8408,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A175" s="13" t="s">
         <v>202</v>
       </c>
@@ -8446,7 +8446,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A176" s="13" t="s">
         <v>203</v>
       </c>
@@ -8484,7 +8484,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A177" s="13" t="s">
         <v>204</v>
       </c>
@@ -8522,7 +8522,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A178" s="13" t="s">
         <v>205</v>
       </c>
@@ -8560,7 +8560,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A179" s="13" t="s">
         <v>206</v>
       </c>
@@ -8598,7 +8598,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A180" s="13" t="s">
         <v>207</v>
       </c>
@@ -8636,7 +8636,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A181" s="13" t="s">
         <v>208</v>
       </c>
@@ -8688,18 +8688,18 @@
       <selection activeCell="A43" sqref="A43:XFD50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="4"/>
-    <col min="6" max="6" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="9.73046875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.1328125" style="4"/>
+    <col min="6" max="6" width="9.86328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.86328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -8722,7 +8722,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
         <v>29</v>
       </c>
@@ -8745,7 +8745,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="13" t="s">
         <v>30</v>
       </c>
@@ -8768,7 +8768,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="13" t="s">
         <v>31</v>
       </c>
@@ -8791,7 +8791,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="13" t="s">
         <v>32</v>
       </c>
@@ -8814,7 +8814,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="13" t="s">
         <v>33</v>
       </c>
@@ -8837,7 +8837,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="13" t="s">
         <v>34</v>
       </c>
@@ -8860,7 +8860,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="13" t="s">
         <v>35</v>
       </c>
@@ -8883,7 +8883,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="13" t="s">
         <v>36</v>
       </c>
@@ -8906,7 +8906,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="13" t="s">
         <v>37</v>
       </c>
@@ -8929,7 +8929,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="13" t="s">
         <v>38</v>
       </c>
@@ -8952,7 +8952,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="13" t="s">
         <v>39</v>
       </c>
@@ -8975,7 +8975,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="13" t="s">
         <v>40</v>
       </c>
@@ -8998,7 +8998,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="13" t="s">
         <v>53</v>
       </c>
@@ -9021,7 +9021,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="13" t="s">
         <v>54</v>
       </c>
@@ -9044,7 +9044,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="13" t="s">
         <v>55</v>
       </c>
@@ -9067,7 +9067,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="13" t="s">
         <v>56</v>
       </c>
@@ -9090,7 +9090,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="13" t="s">
         <v>57</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="13" t="s">
         <v>58</v>
       </c>
@@ -9136,7 +9136,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="13" t="s">
         <v>59</v>
       </c>
@@ -9159,7 +9159,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="13" t="s">
         <v>60</v>
       </c>
@@ -9182,7 +9182,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="13" t="s">
         <v>61</v>
       </c>
@@ -9205,7 +9205,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="13" t="s">
         <v>62</v>
       </c>
@@ -9228,7 +9228,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="13" t="s">
         <v>63</v>
       </c>
@@ -9251,7 +9251,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="13" t="s">
         <v>64</v>
       </c>
@@ -9274,7 +9274,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="13" t="s">
         <v>41</v>
       </c>
@@ -9297,7 +9297,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="13" t="s">
         <v>42</v>
       </c>
@@ -9320,7 +9320,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="13" t="s">
         <v>43</v>
       </c>
@@ -9343,7 +9343,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="13" t="s">
         <v>44</v>
       </c>
@@ -9366,7 +9366,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="13" t="s">
         <v>45</v>
       </c>
@@ -9389,7 +9389,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="13" t="s">
         <v>46</v>
       </c>
@@ -9412,7 +9412,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="13" t="s">
         <v>47</v>
       </c>
@@ -9435,7 +9435,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="13" t="s">
         <v>48</v>
       </c>
@@ -9458,7 +9458,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="13" t="s">
         <v>49</v>
       </c>
@@ -9481,7 +9481,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="13" t="s">
         <v>50</v>
       </c>
@@ -9504,7 +9504,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="13" t="s">
         <v>51</v>
       </c>
@@ -9527,7 +9527,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="13" t="s">
         <v>52</v>
       </c>
@@ -9550,7 +9550,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="13" t="s">
         <v>65</v>
       </c>
@@ -9573,7 +9573,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="13" t="s">
         <v>66</v>
       </c>
@@ -9596,7 +9596,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="13" t="s">
         <v>67</v>
       </c>
@@ -9619,7 +9619,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="13" t="s">
         <v>68</v>
       </c>
@@ -9642,7 +9642,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="13" t="s">
         <v>69</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="13" t="s">
         <v>70</v>
       </c>
@@ -9688,7 +9688,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="13" t="s">
         <v>71</v>
       </c>
@@ -9711,7 +9711,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="13" t="s">
         <v>72</v>
       </c>
@@ -9734,7 +9734,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="13" t="s">
         <v>73</v>
       </c>
@@ -9757,7 +9757,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="13" t="s">
         <v>74</v>
       </c>
@@ -9780,7 +9780,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="13" t="s">
         <v>75</v>
       </c>
@@ -9803,7 +9803,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="13" t="s">
         <v>76</v>
       </c>
@@ -9826,7 +9826,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="13" t="s">
         <v>77</v>
       </c>
@@ -9849,7 +9849,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="13" t="s">
         <v>78</v>
       </c>
@@ -9872,7 +9872,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="13" t="s">
         <v>79</v>
       </c>
@@ -9895,7 +9895,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="13" t="s">
         <v>80</v>
       </c>
@@ -9918,7 +9918,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="13" t="s">
         <v>81</v>
       </c>
@@ -9941,7 +9941,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="13" t="s">
         <v>82</v>
       </c>
@@ -9964,7 +9964,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" s="13" t="s">
         <v>83</v>
       </c>
@@ -9987,7 +9987,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" s="13" t="s">
         <v>84</v>
       </c>
@@ -10010,7 +10010,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" s="13" t="s">
         <v>85</v>
       </c>
@@ -10033,7 +10033,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" s="13" t="s">
         <v>86</v>
       </c>
@@ -10056,7 +10056,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" s="13" t="s">
         <v>87</v>
       </c>
@@ -10079,7 +10079,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" s="13" t="s">
         <v>88</v>
       </c>
@@ -10102,7 +10102,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" s="13" t="s">
         <v>257</v>
       </c>
@@ -10125,7 +10125,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" s="13" t="s">
         <v>258</v>
       </c>
@@ -10148,7 +10148,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" s="13" t="s">
         <v>259</v>
       </c>
@@ -10171,7 +10171,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" s="13" t="s">
         <v>260</v>
       </c>
@@ -10194,7 +10194,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" s="13" t="s">
         <v>261</v>
       </c>
@@ -10217,7 +10217,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" s="13" t="s">
         <v>262</v>
       </c>
@@ -10240,7 +10240,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" s="13" t="s">
         <v>263</v>
       </c>
@@ -10263,7 +10263,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" s="13" t="s">
         <v>264</v>
       </c>
@@ -10286,7 +10286,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" s="13" t="s">
         <v>265</v>
       </c>
@@ -10309,7 +10309,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" s="13" t="s">
         <v>266</v>
       </c>
@@ -10332,7 +10332,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" s="13" t="s">
         <v>267</v>
       </c>
@@ -10355,7 +10355,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" s="13" t="s">
         <v>268</v>
       </c>
@@ -10378,7 +10378,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" s="13" t="s">
         <v>101</v>
       </c>
@@ -10401,7 +10401,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" s="13" t="s">
         <v>102</v>
       </c>
@@ -10424,7 +10424,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" s="13" t="s">
         <v>103</v>
       </c>
@@ -10447,7 +10447,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" s="13" t="s">
         <v>104</v>
       </c>
@@ -10470,7 +10470,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" s="13" t="s">
         <v>105</v>
       </c>
@@ -10493,7 +10493,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" s="13" t="s">
         <v>106</v>
       </c>
@@ -10516,7 +10516,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" s="13" t="s">
         <v>107</v>
       </c>
@@ -10539,7 +10539,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" s="13" t="s">
         <v>108</v>
       </c>
@@ -10562,7 +10562,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" s="13" t="s">
         <v>109</v>
       </c>
@@ -10585,7 +10585,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" s="13" t="s">
         <v>110</v>
       </c>
@@ -10608,7 +10608,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" s="13" t="s">
         <v>111</v>
       </c>
@@ -10631,7 +10631,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" s="13" t="s">
         <v>112</v>
       </c>
@@ -10654,7 +10654,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" s="13" t="s">
         <v>113</v>
       </c>
@@ -10677,7 +10677,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" s="13" t="s">
         <v>114</v>
       </c>
@@ -10700,7 +10700,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" s="13" t="s">
         <v>115</v>
       </c>
@@ -10723,7 +10723,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" s="13" t="s">
         <v>116</v>
       </c>
@@ -10746,7 +10746,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" s="13" t="s">
         <v>117</v>
       </c>
@@ -10769,7 +10769,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" s="13" t="s">
         <v>118</v>
       </c>
@@ -10792,7 +10792,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" s="13" t="s">
         <v>119</v>
       </c>
@@ -10815,7 +10815,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" s="13" t="s">
         <v>120</v>
       </c>
@@ -10838,7 +10838,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" s="13" t="s">
         <v>121</v>
       </c>
@@ -10861,7 +10861,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" s="13" t="s">
         <v>122</v>
       </c>
@@ -10884,7 +10884,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" s="13" t="s">
         <v>123</v>
       </c>
@@ -10907,7 +10907,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" s="13" t="s">
         <v>124</v>
       </c>
@@ -10930,7 +10930,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" s="13" t="s">
         <v>125</v>
       </c>
@@ -10953,7 +10953,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" s="13" t="s">
         <v>126</v>
       </c>
@@ -10976,7 +10976,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" s="13" t="s">
         <v>127</v>
       </c>
@@ -10999,7 +10999,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" s="13" t="s">
         <v>128</v>
       </c>
@@ -11022,7 +11022,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" s="13" t="s">
         <v>129</v>
       </c>
@@ -11045,7 +11045,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" s="13" t="s">
         <v>130</v>
       </c>
@@ -11068,7 +11068,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" s="13" t="s">
         <v>131</v>
       </c>
@@ -11091,7 +11091,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" s="13" t="s">
         <v>132</v>
       </c>
@@ -11114,7 +11114,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106" s="13" t="s">
         <v>133</v>
       </c>
@@ -11137,7 +11137,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107" s="13" t="s">
         <v>134</v>
       </c>
@@ -11160,7 +11160,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A108" s="13" t="s">
         <v>135</v>
       </c>
@@ -11183,7 +11183,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A109" s="13" t="s">
         <v>136</v>
       </c>
@@ -11206,7 +11206,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A110" s="13" t="s">
         <v>137</v>
       </c>
@@ -11229,7 +11229,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A111" s="13" t="s">
         <v>138</v>
       </c>
@@ -11252,7 +11252,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A112" s="13" t="s">
         <v>139</v>
       </c>
@@ -11275,7 +11275,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A113" s="13" t="s">
         <v>140</v>
       </c>
@@ -11298,7 +11298,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A114" s="13" t="s">
         <v>141</v>
       </c>
@@ -11321,7 +11321,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A115" s="13" t="s">
         <v>142</v>
       </c>
@@ -11344,7 +11344,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A116" s="13" t="s">
         <v>143</v>
       </c>
@@ -11367,7 +11367,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A117" s="13" t="s">
         <v>144</v>
       </c>
@@ -11390,7 +11390,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A118" s="13" t="s">
         <v>145</v>
       </c>
@@ -11413,7 +11413,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A119" s="13" t="s">
         <v>146</v>
       </c>
@@ -11436,7 +11436,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A120" s="13" t="s">
         <v>147</v>
       </c>
@@ -11459,7 +11459,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A121" s="13" t="s">
         <v>148</v>
       </c>
@@ -11482,7 +11482,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A122" s="13" t="s">
         <v>149</v>
       </c>
@@ -11505,7 +11505,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A123" s="13" t="s">
         <v>150</v>
       </c>
@@ -11528,7 +11528,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A124" s="13" t="s">
         <v>151</v>
       </c>
@@ -11551,7 +11551,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A125" s="13" t="s">
         <v>152</v>
       </c>
@@ -11574,7 +11574,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A126" s="13" t="s">
         <v>153</v>
       </c>
@@ -11597,7 +11597,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A127" s="13" t="s">
         <v>154</v>
       </c>
@@ -11620,7 +11620,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A128" s="13" t="s">
         <v>155</v>
       </c>
@@ -11643,7 +11643,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A129" s="13" t="s">
         <v>156</v>
       </c>
@@ -11666,7 +11666,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A130" s="13" t="s">
         <v>157</v>
       </c>
@@ -11689,7 +11689,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A131" s="13" t="s">
         <v>158</v>
       </c>
@@ -11712,7 +11712,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A132" s="13" t="s">
         <v>159</v>
       </c>
@@ -11735,7 +11735,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A133" s="13" t="s">
         <v>160</v>
       </c>
@@ -11758,7 +11758,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A134" s="13" t="s">
         <v>161</v>
       </c>
@@ -11781,7 +11781,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A135" s="13" t="s">
         <v>162</v>
       </c>
@@ -11804,7 +11804,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A136" s="13" t="s">
         <v>163</v>
       </c>
@@ -11827,7 +11827,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A137" s="13" t="s">
         <v>164</v>
       </c>
@@ -11850,7 +11850,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A138" s="13" t="s">
         <v>165</v>
       </c>
@@ -11873,7 +11873,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A139" s="13" t="s">
         <v>166</v>
       </c>
@@ -11896,7 +11896,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A140" s="13" t="s">
         <v>167</v>
       </c>
@@ -11919,7 +11919,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A141" s="13" t="s">
         <v>168</v>
       </c>
@@ -11942,7 +11942,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A142" s="13" t="s">
         <v>169</v>
       </c>
@@ -11965,7 +11965,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A143" s="13" t="s">
         <v>170</v>
       </c>
@@ -11988,7 +11988,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A144" s="13" t="s">
         <v>171</v>
       </c>
@@ -12011,7 +12011,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A145" s="13" t="s">
         <v>172</v>
       </c>
@@ -12034,7 +12034,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A146" s="13" t="s">
         <v>173</v>
       </c>
@@ -12057,7 +12057,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A147" s="13" t="s">
         <v>174</v>
       </c>
@@ -12080,7 +12080,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A148" s="13" t="s">
         <v>175</v>
       </c>
@@ -12103,7 +12103,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A149" s="13" t="s">
         <v>176</v>
       </c>
@@ -12126,7 +12126,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A150" s="13" t="s">
         <v>177</v>
       </c>
@@ -12149,7 +12149,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A151" s="13" t="s">
         <v>178</v>
       </c>
@@ -12172,7 +12172,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A152" s="13" t="s">
         <v>179</v>
       </c>
@@ -12195,7 +12195,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A153" s="13" t="s">
         <v>180</v>
       </c>
@@ -12218,7 +12218,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A154" s="13" t="s">
         <v>181</v>
       </c>
@@ -12241,7 +12241,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A155" s="13" t="s">
         <v>182</v>
       </c>
@@ -12264,7 +12264,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A156" s="13" t="s">
         <v>183</v>
       </c>
@@ -12287,7 +12287,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A157" s="13" t="s">
         <v>184</v>
       </c>
@@ -12310,7 +12310,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A158" s="13" t="s">
         <v>185</v>
       </c>
@@ -12333,7 +12333,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A159" s="13" t="s">
         <v>186</v>
       </c>
@@ -12356,7 +12356,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A160" s="13" t="s">
         <v>187</v>
       </c>
@@ -12379,7 +12379,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A161" s="13" t="s">
         <v>188</v>
       </c>
@@ -12402,7 +12402,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A162" s="13" t="s">
         <v>189</v>
       </c>
@@ -12425,7 +12425,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A163" s="13" t="s">
         <v>190</v>
       </c>
@@ -12448,7 +12448,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A164" s="13" t="s">
         <v>191</v>
       </c>
@@ -12471,7 +12471,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A165" s="13" t="s">
         <v>192</v>
       </c>
@@ -12494,7 +12494,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A166" s="13" t="s">
         <v>193</v>
       </c>
@@ -12517,7 +12517,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A167" s="13" t="s">
         <v>194</v>
       </c>
@@ -12540,7 +12540,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A168" s="13" t="s">
         <v>195</v>
       </c>
@@ -12563,7 +12563,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A169" s="13" t="s">
         <v>196</v>
       </c>
@@ -12586,7 +12586,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A170" s="13" t="s">
         <v>197</v>
       </c>
@@ -12609,7 +12609,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A171" s="13" t="s">
         <v>198</v>
       </c>
@@ -12632,7 +12632,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A172" s="13" t="s">
         <v>199</v>
       </c>
@@ -12655,7 +12655,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A173" s="13" t="s">
         <v>200</v>
       </c>
@@ -12678,7 +12678,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A174" s="13" t="s">
         <v>201</v>
       </c>
@@ -12701,7 +12701,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A175" s="13" t="s">
         <v>202</v>
       </c>
@@ -12724,7 +12724,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A176" s="13" t="s">
         <v>203</v>
       </c>
@@ -12747,7 +12747,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A177" s="13" t="s">
         <v>204</v>
       </c>
@@ -12770,7 +12770,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A178" s="13" t="s">
         <v>205</v>
       </c>
@@ -12793,7 +12793,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A179" s="13" t="s">
         <v>206</v>
       </c>
@@ -12816,7 +12816,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A180" s="13" t="s">
         <v>207</v>
       </c>
@@ -12839,7 +12839,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A181" s="13" t="s">
         <v>208</v>
       </c>
@@ -12876,22 +12876,22 @@
       <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.73046875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="4"/>
-    <col min="7" max="7" width="9.140625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.1328125" style="4"/>
+    <col min="7" max="7" width="9.1328125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="8.265625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.73046875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="8.265625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="8.86328125" customWidth="1"/>
+    <col min="12" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -12923,7 +12923,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
         <v>29</v>
       </c>
@@ -12955,7 +12955,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="13" t="s">
         <v>30</v>
       </c>
@@ -12987,7 +12987,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="13" t="s">
         <v>31</v>
       </c>
@@ -13019,7 +13019,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="13" t="s">
         <v>32</v>
       </c>
@@ -13051,7 +13051,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="13" t="s">
         <v>33</v>
       </c>
@@ -13083,7 +13083,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="13" t="s">
         <v>34</v>
       </c>
@@ -13115,7 +13115,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="13" t="s">
         <v>35</v>
       </c>
@@ -13147,7 +13147,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="13" t="s">
         <v>36</v>
       </c>
@@ -13179,7 +13179,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="13" t="s">
         <v>37</v>
       </c>
@@ -13211,7 +13211,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="13" t="s">
         <v>38</v>
       </c>
@@ -13243,7 +13243,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="13" t="s">
         <v>39</v>
       </c>
@@ -13275,7 +13275,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="13" t="s">
         <v>40</v>
       </c>
@@ -13307,7 +13307,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="13" t="s">
         <v>53</v>
       </c>
@@ -13339,7 +13339,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="13" t="s">
         <v>54</v>
       </c>
@@ -13371,7 +13371,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="13" t="s">
         <v>55</v>
       </c>
@@ -13403,7 +13403,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="13" t="s">
         <v>56</v>
       </c>
@@ -13435,7 +13435,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="13" t="s">
         <v>57</v>
       </c>
@@ -13467,7 +13467,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="13" t="s">
         <v>58</v>
       </c>
@@ -13499,7 +13499,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="13" t="s">
         <v>59</v>
       </c>
@@ -13531,7 +13531,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="13" t="s">
         <v>60</v>
       </c>
@@ -13563,7 +13563,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="13" t="s">
         <v>61</v>
       </c>
@@ -13595,7 +13595,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="13" t="s">
         <v>62</v>
       </c>
@@ -13627,7 +13627,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="13" t="s">
         <v>63</v>
       </c>
@@ -13659,7 +13659,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="13" t="s">
         <v>64</v>
       </c>
@@ -13691,7 +13691,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="13" t="s">
         <v>41</v>
       </c>
@@ -13723,7 +13723,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="13" t="s">
         <v>42</v>
       </c>
@@ -13755,7 +13755,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="13" t="s">
         <v>43</v>
       </c>
@@ -13787,7 +13787,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="13" t="s">
         <v>44</v>
       </c>
@@ -13819,7 +13819,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="13" t="s">
         <v>45</v>
       </c>
@@ -13851,7 +13851,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="13" t="s">
         <v>46</v>
       </c>
@@ -13883,7 +13883,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="13" t="s">
         <v>47</v>
       </c>
@@ -13915,7 +13915,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" s="13" t="s">
         <v>48</v>
       </c>
@@ -13947,7 +13947,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" s="13" t="s">
         <v>49</v>
       </c>
@@ -13979,7 +13979,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" s="13" t="s">
         <v>50</v>
       </c>
@@ -14011,7 +14011,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" s="13" t="s">
         <v>51</v>
       </c>
@@ -14043,7 +14043,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" s="13" t="s">
         <v>52</v>
       </c>
@@ -14075,7 +14075,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38" s="13" t="s">
         <v>65</v>
       </c>
@@ -14107,7 +14107,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39" s="13" t="s">
         <v>66</v>
       </c>
@@ -14139,7 +14139,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" s="13" t="s">
         <v>67</v>
       </c>
@@ -14171,7 +14171,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41" s="13" t="s">
         <v>68</v>
       </c>
@@ -14203,7 +14203,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42" s="13" t="s">
         <v>69</v>
       </c>
@@ -14235,7 +14235,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43" s="13" t="s">
         <v>70</v>
       </c>
@@ -14267,7 +14267,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44" s="13" t="s">
         <v>71</v>
       </c>
@@ -14299,7 +14299,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45" s="13" t="s">
         <v>72</v>
       </c>
@@ -14331,7 +14331,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46" s="13" t="s">
         <v>73</v>
       </c>
@@ -14363,7 +14363,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47" s="13" t="s">
         <v>74</v>
       </c>
@@ -14395,7 +14395,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A48" s="13" t="s">
         <v>75</v>
       </c>
@@ -14427,7 +14427,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A49" s="13" t="s">
         <v>76</v>
       </c>
@@ -14459,7 +14459,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A50" s="13" t="s">
         <v>77</v>
       </c>
@@ -14491,7 +14491,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A51" s="13" t="s">
         <v>78</v>
       </c>
@@ -14523,7 +14523,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A52" s="13" t="s">
         <v>79</v>
       </c>
@@ -14555,7 +14555,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A53" s="13" t="s">
         <v>80</v>
       </c>
@@ -14587,7 +14587,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A54" s="13" t="s">
         <v>81</v>
       </c>
@@ -14619,7 +14619,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A55" s="13" t="s">
         <v>82</v>
       </c>
@@ -14651,7 +14651,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A56" s="13" t="s">
         <v>83</v>
       </c>
@@ -14683,7 +14683,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A57" s="13" t="s">
         <v>84</v>
       </c>
@@ -14715,7 +14715,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A58" s="13" t="s">
         <v>85</v>
       </c>
@@ -14747,7 +14747,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A59" s="13" t="s">
         <v>86</v>
       </c>
@@ -14779,7 +14779,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A60" s="13" t="s">
         <v>87</v>
       </c>
@@ -14811,7 +14811,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A61" s="13" t="s">
         <v>88</v>
       </c>
@@ -14843,7 +14843,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A62" s="13" t="s">
         <v>245</v>
       </c>
@@ -14875,7 +14875,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A63" s="13" t="s">
         <v>246</v>
       </c>
@@ -14907,7 +14907,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A64" s="13" t="s">
         <v>247</v>
       </c>
@@ -14939,7 +14939,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A65" s="13" t="s">
         <v>248</v>
       </c>
@@ -14971,7 +14971,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A66" s="13" t="s">
         <v>249</v>
       </c>
@@ -15003,7 +15003,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A67" s="13" t="s">
         <v>250</v>
       </c>
@@ -15035,7 +15035,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A68" s="13" t="s">
         <v>251</v>
       </c>
@@ -15067,7 +15067,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A69" s="13" t="s">
         <v>252</v>
       </c>
@@ -15099,7 +15099,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A70" s="13" t="s">
         <v>253</v>
       </c>
@@ -15131,7 +15131,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A71" s="13" t="s">
         <v>254</v>
       </c>
@@ -15163,7 +15163,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A72" s="13" t="s">
         <v>255</v>
       </c>
@@ -15195,7 +15195,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A73" s="13" t="s">
         <v>256</v>
       </c>
@@ -15227,7 +15227,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A74" s="13" t="s">
         <v>101</v>
       </c>
@@ -15259,7 +15259,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A75" s="13" t="s">
         <v>102</v>
       </c>
@@ -15291,7 +15291,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A76" s="13" t="s">
         <v>103</v>
       </c>
@@ -15323,7 +15323,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A77" s="13" t="s">
         <v>104</v>
       </c>
@@ -15355,7 +15355,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A78" s="13" t="s">
         <v>105</v>
       </c>
@@ -15387,7 +15387,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A79" s="13" t="s">
         <v>106</v>
       </c>
@@ -15419,7 +15419,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A80" s="13" t="s">
         <v>107</v>
       </c>
@@ -15451,7 +15451,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A81" s="13" t="s">
         <v>108</v>
       </c>
@@ -15483,7 +15483,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A82" s="13" t="s">
         <v>109</v>
       </c>
@@ -15515,7 +15515,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A83" s="13" t="s">
         <v>110</v>
       </c>
@@ -15547,7 +15547,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A84" s="13" t="s">
         <v>111</v>
       </c>
@@ -15579,7 +15579,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A85" s="13" t="s">
         <v>112</v>
       </c>
@@ -15611,7 +15611,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A86" s="13" t="s">
         <v>113</v>
       </c>
@@ -15643,7 +15643,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A87" s="13" t="s">
         <v>114</v>
       </c>
@@ -15675,7 +15675,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A88" s="13" t="s">
         <v>115</v>
       </c>
@@ -15707,7 +15707,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A89" s="13" t="s">
         <v>116</v>
       </c>
@@ -15739,7 +15739,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A90" s="13" t="s">
         <v>117</v>
       </c>
@@ -15771,7 +15771,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A91" s="13" t="s">
         <v>118</v>
       </c>
@@ -15803,7 +15803,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A92" s="13" t="s">
         <v>119</v>
       </c>
@@ -15835,7 +15835,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A93" s="13" t="s">
         <v>120</v>
       </c>
@@ -15867,7 +15867,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A94" s="13" t="s">
         <v>121</v>
       </c>
@@ -15899,7 +15899,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A95" s="13" t="s">
         <v>122</v>
       </c>
@@ -15931,7 +15931,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A96" s="13" t="s">
         <v>123</v>
       </c>
@@ -15963,7 +15963,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A97" s="13" t="s">
         <v>124</v>
       </c>
@@ -15995,7 +15995,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A98" s="13" t="s">
         <v>125</v>
       </c>
@@ -16027,7 +16027,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A99" s="13" t="s">
         <v>126</v>
       </c>
@@ -16059,7 +16059,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A100" s="13" t="s">
         <v>127</v>
       </c>
@@ -16091,7 +16091,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A101" s="13" t="s">
         <v>128</v>
       </c>
@@ -16123,7 +16123,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A102" s="13" t="s">
         <v>129</v>
       </c>
@@ -16155,7 +16155,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A103" s="13" t="s">
         <v>130</v>
       </c>
@@ -16187,7 +16187,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A104" s="13" t="s">
         <v>131</v>
       </c>
@@ -16219,7 +16219,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A105" s="13" t="s">
         <v>132</v>
       </c>
@@ -16251,7 +16251,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A106" s="13" t="s">
         <v>133</v>
       </c>
@@ -16283,7 +16283,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A107" s="13" t="s">
         <v>134</v>
       </c>
@@ -16315,7 +16315,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A108" s="13" t="s">
         <v>135</v>
       </c>
@@ -16347,7 +16347,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A109" s="13" t="s">
         <v>136</v>
       </c>
@@ -16379,7 +16379,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A110" s="13" t="s">
         <v>137</v>
       </c>
@@ -16411,7 +16411,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A111" s="13" t="s">
         <v>138</v>
       </c>
@@ -16443,7 +16443,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A112" s="13" t="s">
         <v>139</v>
       </c>
@@ -16475,7 +16475,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A113" s="13" t="s">
         <v>140</v>
       </c>
@@ -16507,7 +16507,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A114" s="13" t="s">
         <v>141</v>
       </c>
@@ -16539,7 +16539,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A115" s="13" t="s">
         <v>142</v>
       </c>
@@ -16571,7 +16571,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A116" s="13" t="s">
         <v>143</v>
       </c>
@@ -16603,7 +16603,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A117" s="13" t="s">
         <v>144</v>
       </c>
@@ -16635,7 +16635,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A118" s="13" t="s">
         <v>145</v>
       </c>
@@ -16667,7 +16667,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A119" s="13" t="s">
         <v>146</v>
       </c>
@@ -16699,7 +16699,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A120" s="13" t="s">
         <v>147</v>
       </c>
@@ -16731,7 +16731,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A121" s="13" t="s">
         <v>148</v>
       </c>
@@ -16763,7 +16763,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A122" s="13" t="s">
         <v>149</v>
       </c>
@@ -16795,7 +16795,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A123" s="13" t="s">
         <v>150</v>
       </c>
@@ -16827,7 +16827,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A124" s="13" t="s">
         <v>151</v>
       </c>
@@ -16859,7 +16859,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A125" s="13" t="s">
         <v>152</v>
       </c>
@@ -16891,7 +16891,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A126" s="13" t="s">
         <v>153</v>
       </c>
@@ -16923,7 +16923,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A127" s="13" t="s">
         <v>154</v>
       </c>
@@ -16955,7 +16955,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A128" s="13" t="s">
         <v>155</v>
       </c>
@@ -16987,7 +16987,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A129" s="13" t="s">
         <v>156</v>
       </c>
@@ -17019,7 +17019,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A130" s="13" t="s">
         <v>157</v>
       </c>
@@ -17051,7 +17051,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A131" s="13" t="s">
         <v>158</v>
       </c>
@@ -17083,7 +17083,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A132" s="13" t="s">
         <v>159</v>
       </c>
@@ -17115,7 +17115,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A133" s="13" t="s">
         <v>160</v>
       </c>
@@ -17147,7 +17147,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A134" s="13" t="s">
         <v>161</v>
       </c>
@@ -17179,7 +17179,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A135" s="13" t="s">
         <v>162</v>
       </c>
@@ -17211,7 +17211,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A136" s="13" t="s">
         <v>163</v>
       </c>
@@ -17243,7 +17243,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A137" s="13" t="s">
         <v>164</v>
       </c>
@@ -17275,7 +17275,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A138" s="13" t="s">
         <v>165</v>
       </c>
@@ -17307,7 +17307,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A139" s="13" t="s">
         <v>166</v>
       </c>
@@ -17339,7 +17339,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A140" s="13" t="s">
         <v>167</v>
       </c>
@@ -17371,7 +17371,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A141" s="13" t="s">
         <v>168</v>
       </c>
@@ -17403,7 +17403,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A142" s="13" t="s">
         <v>169</v>
       </c>
@@ -17435,7 +17435,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A143" s="13" t="s">
         <v>170</v>
       </c>
@@ -17467,7 +17467,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A144" s="13" t="s">
         <v>171</v>
       </c>
@@ -17499,7 +17499,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A145" s="13" t="s">
         <v>172</v>
       </c>
@@ -17531,7 +17531,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A146" s="13" t="s">
         <v>173</v>
       </c>
@@ -17563,7 +17563,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A147" s="13" t="s">
         <v>174</v>
       </c>
@@ -17595,7 +17595,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A148" s="13" t="s">
         <v>175</v>
       </c>
@@ -17627,7 +17627,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A149" s="13" t="s">
         <v>176</v>
       </c>
@@ -17659,7 +17659,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A150" s="13" t="s">
         <v>177</v>
       </c>
@@ -17691,7 +17691,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A151" s="13" t="s">
         <v>178</v>
       </c>
@@ -17723,7 +17723,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A152" s="13" t="s">
         <v>179</v>
       </c>
@@ -17755,7 +17755,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A153" s="13" t="s">
         <v>180</v>
       </c>
@@ -17787,7 +17787,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A154" s="13" t="s">
         <v>181</v>
       </c>
@@ -17819,7 +17819,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A155" s="13" t="s">
         <v>182</v>
       </c>
@@ -17851,7 +17851,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A156" s="13" t="s">
         <v>183</v>
       </c>
@@ -17883,7 +17883,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A157" s="13" t="s">
         <v>184</v>
       </c>
@@ -17915,7 +17915,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A158" s="13" t="s">
         <v>185</v>
       </c>
@@ -17947,7 +17947,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A159" s="13" t="s">
         <v>186</v>
       </c>
@@ -17979,7 +17979,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A160" s="13" t="s">
         <v>187</v>
       </c>
@@ -18011,7 +18011,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A161" s="13" t="s">
         <v>188</v>
       </c>
@@ -18043,7 +18043,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A162" s="13" t="s">
         <v>189</v>
       </c>
@@ -18075,7 +18075,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A163" s="13" t="s">
         <v>190</v>
       </c>
@@ -18107,7 +18107,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A164" s="13" t="s">
         <v>191</v>
       </c>
@@ -18139,7 +18139,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A165" s="13" t="s">
         <v>192</v>
       </c>
@@ -18171,7 +18171,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A166" s="13" t="s">
         <v>193</v>
       </c>
@@ -18203,7 +18203,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A167" s="13" t="s">
         <v>194</v>
       </c>
@@ -18235,7 +18235,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A168" s="13" t="s">
         <v>195</v>
       </c>
@@ -18267,7 +18267,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A169" s="13" t="s">
         <v>196</v>
       </c>
@@ -18299,7 +18299,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A170" s="13" t="s">
         <v>197</v>
       </c>
@@ -18331,7 +18331,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A171" s="13" t="s">
         <v>198</v>
       </c>
@@ -18363,7 +18363,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A172" s="13" t="s">
         <v>199</v>
       </c>
@@ -18395,7 +18395,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A173" s="13" t="s">
         <v>200</v>
       </c>
@@ -18427,7 +18427,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A174" s="13" t="s">
         <v>201</v>
       </c>
@@ -18459,7 +18459,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A175" s="13" t="s">
         <v>202</v>
       </c>
@@ -18491,7 +18491,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A176" s="13" t="s">
         <v>203</v>
       </c>
@@ -18523,7 +18523,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A177" s="13" t="s">
         <v>204</v>
       </c>
@@ -18555,7 +18555,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A178" s="13" t="s">
         <v>205</v>
       </c>
@@ -18587,7 +18587,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A179" s="13" t="s">
         <v>206</v>
       </c>
@@ -18619,7 +18619,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A180" s="13" t="s">
         <v>207</v>
       </c>
@@ -18651,7 +18651,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A181" s="13" t="s">
         <v>208</v>
       </c>
@@ -18696,18 +18696,18 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.86328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.86328125" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.73046875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -18727,7 +18727,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
         <v>230</v>
       </c>
@@ -18747,7 +18747,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="13" t="s">
         <v>231</v>
       </c>
@@ -18767,7 +18767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="14" t="s">
         <v>232</v>
       </c>
@@ -18787,7 +18787,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="14" t="s">
         <v>233</v>
       </c>
@@ -18807,7 +18807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="13" t="s">
         <v>234</v>
       </c>
@@ -18827,7 +18827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="13" t="s">
         <v>244</v>
       </c>
@@ -18847,7 +18847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="13" t="s">
         <v>235</v>
       </c>
@@ -18868,7 +18868,7 @@
         <v>25.15</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="13" t="s">
         <v>236</v>
       </c>
@@ -18888,7 +18888,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="13" t="s">
         <v>237</v>
       </c>
@@ -18908,7 +18908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="13" t="s">
         <v>238</v>
       </c>
@@ -18928,7 +18928,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="13" t="s">
         <v>239</v>
       </c>
@@ -18948,7 +18948,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="13" t="s">
         <v>240</v>
       </c>
@@ -18968,7 +18968,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="13" t="s">
         <v>241</v>
       </c>
@@ -18988,7 +18988,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="13" t="s">
         <v>242</v>
       </c>
@@ -19008,7 +19008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="13" t="s">
         <v>243</v>
       </c>
@@ -19042,22 +19042,22 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="15.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.3984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1328125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.73046875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -19089,7 +19089,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
         <v>230</v>
       </c>
@@ -19121,7 +19121,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="13" t="s">
         <v>231</v>
       </c>
@@ -19155,7 +19155,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="14" t="s">
         <v>232</v>
       </c>
@@ -19187,7 +19187,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="13" t="s">
         <v>233</v>
       </c>
@@ -19219,7 +19219,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="13" t="s">
         <v>234</v>
       </c>
@@ -19251,7 +19251,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="13" t="s">
         <v>244</v>
       </c>
@@ -19283,7 +19283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="13" t="s">
         <v>235</v>
       </c>
@@ -19315,7 +19315,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="13" t="s">
         <v>236</v>
       </c>
@@ -19347,7 +19347,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="13" t="s">
         <v>237</v>
       </c>
@@ -19379,7 +19379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="13" t="s">
         <v>238</v>
       </c>
@@ -19411,7 +19411,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="13" t="s">
         <v>239</v>
       </c>
@@ -19443,7 +19443,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="13" t="s">
         <v>240</v>
       </c>
@@ -19475,7 +19475,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="13" t="s">
         <v>241</v>
       </c>
@@ -19507,7 +19507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="13" t="s">
         <v>242</v>
       </c>
@@ -19539,7 +19539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="13" t="s">
         <v>243</v>
       </c>
@@ -19588,24 +19588,24 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.73046875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.86328125" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.1328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.59765625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.3984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.3984375" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -19646,7 +19646,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
@@ -19687,7 +19687,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
@@ -19728,7 +19728,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
@@ -19769,7 +19769,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -19810,7 +19810,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -19851,7 +19851,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
@@ -19892,7 +19892,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
@@ -19933,7 +19933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
@@ -19974,7 +19974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>37</v>
       </c>
@@ -20015,7 +20015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
@@ -20056,7 +20056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
@@ -20097,7 +20097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>40</v>
       </c>
@@ -20138,7 +20138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>53</v>
       </c>
@@ -20179,7 +20179,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>54</v>
       </c>
@@ -20220,7 +20220,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>55</v>
       </c>
@@ -20261,7 +20261,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>56</v>
       </c>
@@ -20302,7 +20302,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>57</v>
       </c>
@@ -20343,7 +20343,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>58</v>
       </c>
@@ -20384,7 +20384,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>59</v>
       </c>
@@ -20425,7 +20425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>60</v>
       </c>
@@ -20466,7 +20466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>61</v>
       </c>
@@ -20507,7 +20507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>62</v>
       </c>
@@ -20548,7 +20548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>63</v>
       </c>
@@ -20589,7 +20589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>64</v>
       </c>
@@ -20630,7 +20630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>41</v>
       </c>
@@ -20671,7 +20671,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>42</v>
       </c>
@@ -20712,7 +20712,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>43</v>
       </c>
@@ -20753,7 +20753,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>44</v>
       </c>
@@ -20794,7 +20794,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>45</v>
       </c>
@@ -20835,7 +20835,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>46</v>
       </c>
@@ -20876,7 +20876,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>47</v>
       </c>
@@ -20917,7 +20917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>48</v>
       </c>
@@ -20958,7 +20958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>49</v>
       </c>
@@ -20999,7 +20999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>50</v>
       </c>
@@ -21040,7 +21040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>51</v>
       </c>
@@ -21081,7 +21081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>52</v>
       </c>
@@ -21122,7 +21122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>65</v>
       </c>
@@ -21163,7 +21163,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>66</v>
       </c>
@@ -21204,7 +21204,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>67</v>
       </c>
@@ -21245,7 +21245,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>68</v>
       </c>
@@ -21286,7 +21286,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
         <v>69</v>
       </c>
@@ -21327,7 +21327,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
         <v>70</v>
       </c>
@@ -21368,7 +21368,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
         <v>71</v>
       </c>
@@ -21409,7 +21409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
         <v>72</v>
       </c>
@@ -21450,7 +21450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
         <v>73</v>
       </c>
@@ -21491,7 +21491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
         <v>74</v>
       </c>
@@ -21532,7 +21532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
         <v>75</v>
       </c>
@@ -21573,7 +21573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
         <v>76</v>
       </c>
@@ -21614,7 +21614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
         <v>77</v>
       </c>
@@ -21655,7 +21655,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
         <v>78</v>
       </c>
@@ -21696,7 +21696,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
         <v>79</v>
       </c>
@@ -21737,7 +21737,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
         <v>80</v>
       </c>
@@ -21778,7 +21778,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A54" s="2" t="s">
         <v>81</v>
       </c>
@@ -21819,7 +21819,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
         <v>82</v>
       </c>
@@ -21860,7 +21860,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
         <v>83</v>
       </c>
@@ -21901,7 +21901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A57" s="2" t="s">
         <v>84</v>
       </c>
@@ -21942,7 +21942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
         <v>85</v>
       </c>
@@ -21983,7 +21983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A59" s="2" t="s">
         <v>86</v>
       </c>
@@ -22024,7 +22024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A60" s="2" t="s">
         <v>87</v>
       </c>
@@ -22065,7 +22065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A61" s="2" t="s">
         <v>88</v>
       </c>
@@ -22106,7 +22106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A62" s="2" t="s">
         <v>89</v>
       </c>
@@ -22147,7 +22147,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
         <v>90</v>
       </c>
@@ -22188,7 +22188,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A64" s="2" t="s">
         <v>91</v>
       </c>
@@ -22229,7 +22229,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
         <v>92</v>
       </c>
@@ -22270,7 +22270,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A66" s="2" t="s">
         <v>93</v>
       </c>
@@ -22311,7 +22311,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A67" s="2" t="s">
         <v>94</v>
       </c>
@@ -22352,7 +22352,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A68" s="2" t="s">
         <v>95</v>
       </c>
@@ -22393,7 +22393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A69" s="2" t="s">
         <v>96</v>
       </c>
@@ -22434,7 +22434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A70" s="2" t="s">
         <v>97</v>
       </c>
@@ -22475,7 +22475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A71" s="2" t="s">
         <v>98</v>
       </c>
@@ -22516,7 +22516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A72" s="2" t="s">
         <v>99</v>
       </c>
@@ -22557,7 +22557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A73" s="2" t="s">
         <v>100</v>
       </c>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
         <v>101</v>
       </c>
@@ -22639,7 +22639,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A75" s="2" t="s">
         <v>102</v>
       </c>
@@ -22680,7 +22680,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A76" s="2" t="s">
         <v>103</v>
       </c>
@@ -22721,7 +22721,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A77" s="2" t="s">
         <v>104</v>
       </c>
@@ -22762,7 +22762,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A78" s="2" t="s">
         <v>105</v>
       </c>
@@ -22803,7 +22803,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A79" s="2" t="s">
         <v>106</v>
       </c>
@@ -22844,7 +22844,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A80" s="2" t="s">
         <v>107</v>
       </c>
@@ -22885,7 +22885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A81" s="2" t="s">
         <v>108</v>
       </c>
@@ -22926,7 +22926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A82" s="2" t="s">
         <v>109</v>
       </c>
@@ -22967,7 +22967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A83" s="2" t="s">
         <v>110</v>
       </c>
@@ -23008,7 +23008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A84" s="2" t="s">
         <v>111</v>
       </c>
@@ -23049,7 +23049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A85" s="2" t="s">
         <v>112</v>
       </c>
@@ -23090,7 +23090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A86" s="2" t="s">
         <v>113</v>
       </c>
@@ -23131,7 +23131,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A87" s="2" t="s">
         <v>114</v>
       </c>
@@ -23172,7 +23172,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A88" s="2" t="s">
         <v>115</v>
       </c>
@@ -23213,7 +23213,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A89" s="2" t="s">
         <v>116</v>
       </c>
@@ -23254,7 +23254,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A90" s="2" t="s">
         <v>117</v>
       </c>
@@ -23295,7 +23295,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A91" s="2" t="s">
         <v>118</v>
       </c>
@@ -23336,7 +23336,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A92" s="2" t="s">
         <v>119</v>
       </c>
@@ -23377,7 +23377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A93" s="2" t="s">
         <v>120</v>
       </c>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A94" s="2" t="s">
         <v>121</v>
       </c>
@@ -23459,7 +23459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A95" s="2" t="s">
         <v>122</v>
       </c>
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A96" s="2" t="s">
         <v>123</v>
       </c>
@@ -23541,7 +23541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A97" s="2" t="s">
         <v>124</v>
       </c>
@@ -23582,7 +23582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A98" s="2" t="s">
         <v>125</v>
       </c>
@@ -23623,7 +23623,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A99" s="2" t="s">
         <v>126</v>
       </c>
@@ -23664,7 +23664,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A100" s="2" t="s">
         <v>127</v>
       </c>
@@ -23705,7 +23705,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A101" s="2" t="s">
         <v>128</v>
       </c>
@@ -23746,7 +23746,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A102" s="2" t="s">
         <v>129</v>
       </c>
@@ -23787,7 +23787,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A103" s="2" t="s">
         <v>130</v>
       </c>
@@ -23828,7 +23828,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A104" s="2" t="s">
         <v>131</v>
       </c>
@@ -23869,7 +23869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A105" s="2" t="s">
         <v>132</v>
       </c>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A106" s="2" t="s">
         <v>133</v>
       </c>
@@ -23951,7 +23951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A107" s="2" t="s">
         <v>134</v>
       </c>
@@ -23992,7 +23992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A108" s="2" t="s">
         <v>135</v>
       </c>
@@ -24033,7 +24033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A109" s="2" t="s">
         <v>136</v>
       </c>
@@ -24074,7 +24074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A110" s="2" t="s">
         <v>137</v>
       </c>
@@ -24115,7 +24115,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A111" s="2" t="s">
         <v>138</v>
       </c>
@@ -24156,7 +24156,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A112" s="2" t="s">
         <v>139</v>
       </c>
@@ -24197,7 +24197,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A113" s="2" t="s">
         <v>140</v>
       </c>
@@ -24238,7 +24238,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A114" s="2" t="s">
         <v>141</v>
       </c>
@@ -24279,7 +24279,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A115" s="2" t="s">
         <v>142</v>
       </c>
@@ -24320,7 +24320,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A116" s="2" t="s">
         <v>143</v>
       </c>
@@ -24361,7 +24361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A117" s="2" t="s">
         <v>144</v>
       </c>
@@ -24402,7 +24402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A118" s="2" t="s">
         <v>145</v>
       </c>
@@ -24443,7 +24443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A119" s="2" t="s">
         <v>146</v>
       </c>
@@ -24484,7 +24484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A120" s="2" t="s">
         <v>147</v>
       </c>
@@ -24525,7 +24525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A121" s="2" t="s">
         <v>148</v>
       </c>
@@ -24566,7 +24566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A122" s="2" t="s">
         <v>149</v>
       </c>
@@ -24607,7 +24607,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A123" s="2" t="s">
         <v>150</v>
       </c>
@@ -24648,7 +24648,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A124" s="2" t="s">
         <v>151</v>
       </c>
@@ -24689,7 +24689,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A125" s="2" t="s">
         <v>152</v>
       </c>
@@ -24730,7 +24730,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A126" s="2" t="s">
         <v>153</v>
       </c>
@@ -24771,7 +24771,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A127" s="2" t="s">
         <v>154</v>
       </c>
@@ -24812,7 +24812,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A128" s="2" t="s">
         <v>155</v>
       </c>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A129" s="2" t="s">
         <v>156</v>
       </c>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A130" s="2" t="s">
         <v>157</v>
       </c>
@@ -24935,7 +24935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A131" s="2" t="s">
         <v>158</v>
       </c>
@@ -24976,7 +24976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A132" s="2" t="s">
         <v>159</v>
       </c>
@@ -25017,7 +25017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A133" s="2" t="s">
         <v>160</v>
       </c>
@@ -25058,7 +25058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A134" s="2" t="s">
         <v>161</v>
       </c>
@@ -25099,7 +25099,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A135" s="2" t="s">
         <v>162</v>
       </c>
@@ -25140,7 +25140,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A136" s="2" t="s">
         <v>163</v>
       </c>
@@ -25181,7 +25181,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A137" s="2" t="s">
         <v>164</v>
       </c>
@@ -25222,7 +25222,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A138" s="2" t="s">
         <v>165</v>
       </c>
@@ -25263,7 +25263,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A139" s="2" t="s">
         <v>166</v>
       </c>
@@ -25304,7 +25304,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A140" s="2" t="s">
         <v>167</v>
       </c>
@@ -25345,7 +25345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A141" s="2" t="s">
         <v>168</v>
       </c>
@@ -25386,7 +25386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A142" s="2" t="s">
         <v>169</v>
       </c>
@@ -25427,7 +25427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A143" s="2" t="s">
         <v>170</v>
       </c>
@@ -25468,7 +25468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A144" s="2" t="s">
         <v>171</v>
       </c>
@@ -25509,7 +25509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A145" s="2" t="s">
         <v>172</v>
       </c>
@@ -25550,7 +25550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A146" s="2" t="s">
         <v>173</v>
       </c>
@@ -25591,7 +25591,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A147" s="2" t="s">
         <v>174</v>
       </c>
@@ -25632,7 +25632,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A148" s="2" t="s">
         <v>175</v>
       </c>
@@ -25673,7 +25673,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A149" s="2" t="s">
         <v>176</v>
       </c>
@@ -25714,7 +25714,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A150" s="2" t="s">
         <v>177</v>
       </c>
@@ -25755,7 +25755,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A151" s="2" t="s">
         <v>178</v>
       </c>
@@ -25796,7 +25796,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A152" s="2" t="s">
         <v>179</v>
       </c>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A153" s="2" t="s">
         <v>180</v>
       </c>
@@ -25878,7 +25878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A154" s="2" t="s">
         <v>181</v>
       </c>
@@ -25919,7 +25919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A155" s="2" t="s">
         <v>182</v>
       </c>
@@ -25960,7 +25960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A156" s="2" t="s">
         <v>183</v>
       </c>
@@ -26001,7 +26001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A157" s="2" t="s">
         <v>184</v>
       </c>
@@ -26042,7 +26042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A158" s="2" t="s">
         <v>185</v>
       </c>
@@ -26083,7 +26083,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A159" s="2" t="s">
         <v>186</v>
       </c>
@@ -26124,7 +26124,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A160" s="2" t="s">
         <v>187</v>
       </c>
@@ -26165,7 +26165,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A161" s="2" t="s">
         <v>188</v>
       </c>
@@ -26206,7 +26206,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A162" s="2" t="s">
         <v>189</v>
       </c>
@@ -26247,7 +26247,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A163" s="2" t="s">
         <v>190</v>
       </c>
@@ -26288,7 +26288,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A164" s="2" t="s">
         <v>191</v>
       </c>
@@ -26329,7 +26329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A165" s="2" t="s">
         <v>192</v>
       </c>
@@ -26370,7 +26370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A166" s="2" t="s">
         <v>193</v>
       </c>
@@ -26411,7 +26411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A167" s="2" t="s">
         <v>194</v>
       </c>
@@ -26452,7 +26452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A168" s="2" t="s">
         <v>195</v>
       </c>
@@ -26493,7 +26493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A169" s="2" t="s">
         <v>196</v>
       </c>
@@ -26534,7 +26534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A170" s="2" t="s">
         <v>197</v>
       </c>
@@ -26575,7 +26575,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A171" s="2" t="s">
         <v>198</v>
       </c>
@@ -26616,7 +26616,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A172" s="2" t="s">
         <v>199</v>
       </c>
@@ -26657,7 +26657,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A173" s="2" t="s">
         <v>200</v>
       </c>
@@ -26698,7 +26698,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A174" s="2" t="s">
         <v>201</v>
       </c>
@@ -26739,7 +26739,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A175" s="2" t="s">
         <v>202</v>
       </c>
@@ -26780,7 +26780,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A176" s="2" t="s">
         <v>203</v>
       </c>
@@ -26821,7 +26821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A177" s="2" t="s">
         <v>204</v>
       </c>
@@ -26862,7 +26862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A178" s="2" t="s">
         <v>205</v>
       </c>
@@ -26903,7 +26903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A179" s="2" t="s">
         <v>206</v>
       </c>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A180" s="2" t="s">
         <v>207</v>
       </c>
@@ -26985,7 +26985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A181" s="2" t="s">
         <v>208</v>
       </c>
@@ -27039,24 +27039,24 @@
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.73046875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.86328125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="6" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="6" customWidth="1"/>
     <col min="10" max="10" width="11" style="6" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="6" customWidth="1"/>
-    <col min="12" max="13" width="11.85546875" style="6" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="5"/>
+    <col min="11" max="11" width="12.73046875" style="6" customWidth="1"/>
+    <col min="12" max="13" width="11.86328125" style="6" customWidth="1"/>
+    <col min="14" max="16384" width="9.1328125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -27097,7 +27097,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
@@ -27138,7 +27138,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
@@ -27179,7 +27179,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
@@ -27220,7 +27220,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -27261,7 +27261,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -27302,7 +27302,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
@@ -27343,7 +27343,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
@@ -27384,7 +27384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
@@ -27425,7 +27425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>37</v>
       </c>
@@ -27466,7 +27466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
@@ -27507,7 +27507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
@@ -27548,7 +27548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>40</v>
       </c>
@@ -27589,7 +27589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>53</v>
       </c>
@@ -27630,7 +27630,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>54</v>
       </c>
@@ -27671,7 +27671,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>55</v>
       </c>
@@ -27712,7 +27712,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>56</v>
       </c>
@@ -27753,7 +27753,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>57</v>
       </c>
@@ -27794,7 +27794,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>58</v>
       </c>
@@ -27835,7 +27835,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>59</v>
       </c>
@@ -27876,7 +27876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>60</v>
       </c>
@@ -27917,7 +27917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>61</v>
       </c>
@@ -27958,7 +27958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>62</v>
       </c>
@@ -27999,7 +27999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>63</v>
       </c>
@@ -28040,7 +28040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>64</v>
       </c>
@@ -28081,7 +28081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>41</v>
       </c>
@@ -28122,7 +28122,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>42</v>
       </c>
@@ -28163,7 +28163,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>43</v>
       </c>
@@ -28204,7 +28204,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>44</v>
       </c>
@@ -28245,7 +28245,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>45</v>
       </c>
@@ -28286,7 +28286,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>46</v>
       </c>
@@ -28327,7 +28327,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>47</v>
       </c>
@@ -28368,7 +28368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>48</v>
       </c>
@@ -28409,7 +28409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>49</v>
       </c>
@@ -28450,7 +28450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>50</v>
       </c>
@@ -28491,7 +28491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>51</v>
       </c>
@@ -28532,7 +28532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>52</v>
       </c>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>65</v>
       </c>
@@ -28614,7 +28614,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>66</v>
       </c>
@@ -28655,7 +28655,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>67</v>
       </c>
@@ -28696,7 +28696,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>68</v>
       </c>
@@ -28737,7 +28737,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
         <v>69</v>
       </c>
@@ -28778,7 +28778,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
         <v>70</v>
       </c>
@@ -28819,7 +28819,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
         <v>71</v>
       </c>
@@ -28860,7 +28860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
         <v>72</v>
       </c>
@@ -28901,7 +28901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
         <v>73</v>
       </c>
@@ -28942,7 +28942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
         <v>74</v>
       </c>
@@ -28983,7 +28983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
         <v>75</v>
       </c>
@@ -29024,7 +29024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
         <v>76</v>
       </c>
@@ -29065,7 +29065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
         <v>77</v>
       </c>
@@ -29106,7 +29106,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
         <v>78</v>
       </c>
@@ -29147,7 +29147,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
         <v>79</v>
       </c>
@@ -29188,7 +29188,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
         <v>80</v>
       </c>
@@ -29229,7 +29229,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A54" s="2" t="s">
         <v>81</v>
       </c>
@@ -29270,7 +29270,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
         <v>82</v>
       </c>
@@ -29311,7 +29311,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
         <v>83</v>
       </c>
@@ -29352,7 +29352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A57" s="2" t="s">
         <v>84</v>
       </c>
@@ -29393,7 +29393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
         <v>85</v>
       </c>
@@ -29434,7 +29434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A59" s="2" t="s">
         <v>86</v>
       </c>
@@ -29475,7 +29475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A60" s="2" t="s">
         <v>87</v>
       </c>
@@ -29516,7 +29516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A61" s="2" t="s">
         <v>88</v>
       </c>
@@ -29557,7 +29557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A62" s="2" t="s">
         <v>89</v>
       </c>
@@ -29598,7 +29598,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
         <v>90</v>
       </c>
@@ -29639,7 +29639,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A64" s="2" t="s">
         <v>91</v>
       </c>
@@ -29680,7 +29680,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
         <v>92</v>
       </c>
@@ -29721,7 +29721,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A66" s="2" t="s">
         <v>93</v>
       </c>
@@ -29762,7 +29762,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A67" s="2" t="s">
         <v>94</v>
       </c>
@@ -29803,7 +29803,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A68" s="2" t="s">
         <v>95</v>
       </c>
@@ -29844,7 +29844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A69" s="2" t="s">
         <v>96</v>
       </c>
@@ -29885,7 +29885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A70" s="2" t="s">
         <v>97</v>
       </c>
@@ -29926,7 +29926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A71" s="2" t="s">
         <v>98</v>
       </c>
@@ -29967,7 +29967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A72" s="2" t="s">
         <v>99</v>
       </c>
@@ -30008,7 +30008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A73" s="2" t="s">
         <v>100</v>
       </c>
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
         <v>101</v>
       </c>
@@ -30090,7 +30090,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A75" s="2" t="s">
         <v>102</v>
       </c>
@@ -30131,7 +30131,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A76" s="2" t="s">
         <v>103</v>
       </c>
@@ -30172,7 +30172,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A77" s="2" t="s">
         <v>104</v>
       </c>
@@ -30213,7 +30213,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A78" s="2" t="s">
         <v>105</v>
       </c>
@@ -30254,7 +30254,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A79" s="2" t="s">
         <v>106</v>
       </c>
@@ -30295,7 +30295,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A80" s="2" t="s">
         <v>107</v>
       </c>
@@ -30336,7 +30336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A81" s="2" t="s">
         <v>108</v>
       </c>
@@ -30377,7 +30377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A82" s="2" t="s">
         <v>109</v>
       </c>
@@ -30418,7 +30418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A83" s="2" t="s">
         <v>110</v>
       </c>
@@ -30459,7 +30459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A84" s="2" t="s">
         <v>111</v>
       </c>
@@ -30500,7 +30500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A85" s="2" t="s">
         <v>112</v>
       </c>
@@ -30541,7 +30541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A86" s="2" t="s">
         <v>113</v>
       </c>
@@ -30582,7 +30582,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A87" s="2" t="s">
         <v>114</v>
       </c>
@@ -30623,7 +30623,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A88" s="2" t="s">
         <v>115</v>
       </c>
@@ -30664,7 +30664,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A89" s="2" t="s">
         <v>116</v>
       </c>
@@ -30705,7 +30705,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A90" s="2" t="s">
         <v>117</v>
       </c>
@@ -30746,7 +30746,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A91" s="2" t="s">
         <v>118</v>
       </c>
@@ -30787,7 +30787,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A92" s="2" t="s">
         <v>119</v>
       </c>
@@ -30828,7 +30828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A93" s="2" t="s">
         <v>120</v>
       </c>
@@ -30869,7 +30869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A94" s="2" t="s">
         <v>121</v>
       </c>
@@ -30910,7 +30910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A95" s="2" t="s">
         <v>122</v>
       </c>
@@ -30951,7 +30951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A96" s="2" t="s">
         <v>123</v>
       </c>
@@ -30992,7 +30992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A97" s="2" t="s">
         <v>124</v>
       </c>
@@ -31033,7 +31033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A98" s="2" t="s">
         <v>125</v>
       </c>
@@ -31074,7 +31074,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A99" s="2" t="s">
         <v>126</v>
       </c>
@@ -31115,7 +31115,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A100" s="2" t="s">
         <v>127</v>
       </c>
@@ -31156,7 +31156,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A101" s="2" t="s">
         <v>128</v>
       </c>
@@ -31197,7 +31197,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A102" s="2" t="s">
         <v>129</v>
       </c>
@@ -31238,7 +31238,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A103" s="2" t="s">
         <v>130</v>
       </c>
@@ -31279,7 +31279,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A104" s="2" t="s">
         <v>131</v>
       </c>
@@ -31320,7 +31320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A105" s="2" t="s">
         <v>132</v>
       </c>
@@ -31361,7 +31361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A106" s="2" t="s">
         <v>133</v>
       </c>
@@ -31402,7 +31402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A107" s="2" t="s">
         <v>134</v>
       </c>
@@ -31443,7 +31443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A108" s="2" t="s">
         <v>135</v>
       </c>
@@ -31484,7 +31484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A109" s="2" t="s">
         <v>136</v>
       </c>
@@ -31525,7 +31525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A110" s="2" t="s">
         <v>137</v>
       </c>
@@ -31566,7 +31566,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A111" s="2" t="s">
         <v>138</v>
       </c>
@@ -31607,7 +31607,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A112" s="2" t="s">
         <v>139</v>
       </c>
@@ -31648,7 +31648,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A113" s="2" t="s">
         <v>140</v>
       </c>
@@ -31689,7 +31689,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A114" s="2" t="s">
         <v>141</v>
       </c>
@@ -31730,7 +31730,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A115" s="2" t="s">
         <v>142</v>
       </c>
@@ -31771,7 +31771,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A116" s="2" t="s">
         <v>143</v>
       </c>
@@ -31812,7 +31812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A117" s="2" t="s">
         <v>144</v>
       </c>
@@ -31853,7 +31853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A118" s="2" t="s">
         <v>145</v>
       </c>
@@ -31894,7 +31894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A119" s="2" t="s">
         <v>146</v>
       </c>
@@ -31935,7 +31935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A120" s="2" t="s">
         <v>147</v>
       </c>
@@ -31976,7 +31976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A121" s="2" t="s">
         <v>148</v>
       </c>
@@ -32017,7 +32017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A122" s="2" t="s">
         <v>149</v>
       </c>
@@ -32058,7 +32058,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A123" s="2" t="s">
         <v>150</v>
       </c>
@@ -32099,7 +32099,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A124" s="2" t="s">
         <v>151</v>
       </c>
@@ -32140,7 +32140,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A125" s="2" t="s">
         <v>152</v>
       </c>
@@ -32181,7 +32181,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A126" s="2" t="s">
         <v>153</v>
       </c>
@@ -32222,7 +32222,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A127" s="2" t="s">
         <v>154</v>
       </c>
@@ -32263,7 +32263,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A128" s="2" t="s">
         <v>155</v>
       </c>
@@ -32304,7 +32304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A129" s="2" t="s">
         <v>156</v>
       </c>
@@ -32345,7 +32345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A130" s="2" t="s">
         <v>157</v>
       </c>
@@ -32386,7 +32386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A131" s="2" t="s">
         <v>158</v>
       </c>
@@ -32427,7 +32427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A132" s="2" t="s">
         <v>159</v>
       </c>
@@ -32468,7 +32468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A133" s="2" t="s">
         <v>160</v>
       </c>
@@ -32509,7 +32509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A134" s="2" t="s">
         <v>161</v>
       </c>
@@ -32550,7 +32550,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A135" s="2" t="s">
         <v>162</v>
       </c>
@@ -32591,7 +32591,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A136" s="2" t="s">
         <v>163</v>
       </c>
@@ -32632,7 +32632,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A137" s="2" t="s">
         <v>164</v>
       </c>
@@ -32673,7 +32673,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A138" s="2" t="s">
         <v>165</v>
       </c>
@@ -32714,7 +32714,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A139" s="2" t="s">
         <v>166</v>
       </c>
@@ -32755,7 +32755,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A140" s="2" t="s">
         <v>167</v>
       </c>
@@ -32796,7 +32796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A141" s="2" t="s">
         <v>168</v>
       </c>
@@ -32837,7 +32837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A142" s="2" t="s">
         <v>169</v>
       </c>
@@ -32878,7 +32878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A143" s="2" t="s">
         <v>170</v>
       </c>
@@ -32919,7 +32919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A144" s="2" t="s">
         <v>171</v>
       </c>
@@ -32960,7 +32960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A145" s="2" t="s">
         <v>172</v>
       </c>
@@ -33001,7 +33001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A146" s="2" t="s">
         <v>173</v>
       </c>
@@ -33042,7 +33042,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A147" s="2" t="s">
         <v>174</v>
       </c>
@@ -33083,7 +33083,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A148" s="2" t="s">
         <v>175</v>
       </c>
@@ -33124,7 +33124,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A149" s="2" t="s">
         <v>176</v>
       </c>
@@ -33165,7 +33165,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A150" s="2" t="s">
         <v>177</v>
       </c>
@@ -33206,7 +33206,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A151" s="2" t="s">
         <v>178</v>
       </c>
@@ -33247,7 +33247,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A152" s="2" t="s">
         <v>179</v>
       </c>
@@ -33288,7 +33288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A153" s="2" t="s">
         <v>180</v>
       </c>
@@ -33329,7 +33329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A154" s="2" t="s">
         <v>181</v>
       </c>
@@ -33370,7 +33370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A155" s="2" t="s">
         <v>182</v>
       </c>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A156" s="2" t="s">
         <v>183</v>
       </c>
@@ -33452,7 +33452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A157" s="2" t="s">
         <v>184</v>
       </c>
@@ -33493,7 +33493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A158" s="2" t="s">
         <v>185</v>
       </c>
@@ -33534,7 +33534,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A159" s="2" t="s">
         <v>186</v>
       </c>
@@ -33575,7 +33575,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A160" s="2" t="s">
         <v>187</v>
       </c>
@@ -33616,7 +33616,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A161" s="2" t="s">
         <v>188</v>
       </c>
@@ -33657,7 +33657,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A162" s="2" t="s">
         <v>189</v>
       </c>
@@ -33698,7 +33698,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A163" s="2" t="s">
         <v>190</v>
       </c>
@@ -33739,7 +33739,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A164" s="2" t="s">
         <v>191</v>
       </c>
@@ -33780,7 +33780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A165" s="2" t="s">
         <v>192</v>
       </c>
@@ -33821,7 +33821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A166" s="2" t="s">
         <v>193</v>
       </c>
@@ -33862,7 +33862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A167" s="2" t="s">
         <v>194</v>
       </c>
@@ -33903,7 +33903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A168" s="2" t="s">
         <v>195</v>
       </c>
@@ -33944,7 +33944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A169" s="2" t="s">
         <v>196</v>
       </c>
@@ -33985,7 +33985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A170" s="2" t="s">
         <v>197</v>
       </c>
@@ -34026,7 +34026,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A171" s="2" t="s">
         <v>198</v>
       </c>
@@ -34067,7 +34067,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A172" s="2" t="s">
         <v>199</v>
       </c>
@@ -34108,7 +34108,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A173" s="2" t="s">
         <v>200</v>
       </c>
@@ -34149,7 +34149,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A174" s="2" t="s">
         <v>201</v>
       </c>
@@ -34190,7 +34190,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A175" s="2" t="s">
         <v>202</v>
       </c>
@@ -34231,7 +34231,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A176" s="2" t="s">
         <v>203</v>
       </c>
@@ -34272,7 +34272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A177" s="2" t="s">
         <v>204</v>
       </c>
@@ -34313,7 +34313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A178" s="2" t="s">
         <v>205</v>
       </c>
@@ -34354,7 +34354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A179" s="2" t="s">
         <v>206</v>
       </c>
@@ -34395,7 +34395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A180" s="2" t="s">
         <v>207</v>
       </c>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A181" s="2" t="s">
         <v>208</v>
       </c>

--- a/cea/databases/CH/Archetypes/Archetypes_properties.xlsx
+++ b/cea/databases/CH/Archetypes/Archetypes_properties.xlsx
@@ -867,18 +867,6 @@
     <t>T5</t>
   </si>
   <si>
-    <t>HEAT_RECOVERY</t>
-  </si>
-  <si>
-    <t>WINDOW_VENTILATION</t>
-  </si>
-  <si>
-    <t>MECHANICAL_VENTILATION</t>
-  </si>
-  <si>
-    <t>NIGHT_FLUSHING</t>
-  </si>
-  <si>
     <t>ECONOMIZER</t>
   </si>
   <si>
@@ -901,6 +889,18 @@
   </si>
   <si>
     <t>WVE0</t>
+  </si>
+  <si>
+    <t>MECH_VENT</t>
+  </si>
+  <si>
+    <t>WIN_VENT</t>
+  </si>
+  <si>
+    <t>HEAT_REC</t>
+  </si>
+  <si>
+    <t>NIGHT_FLSH</t>
   </si>
 </sst>
 </file>
@@ -8721,7 +8721,7 @@
   <dimension ref="A1:L181"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I181" sqref="I181"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8763,19 +8763,19 @@
         <v>9</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="J1" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="L1" s="13" t="s">
         <v>280</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -8801,19 +8801,19 @@
         <v>18</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -8839,19 +8839,19 @@
         <v>18</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -8877,19 +8877,19 @@
         <v>18</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -8915,19 +8915,19 @@
         <v>18</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -8953,19 +8953,19 @@
         <v>20</v>
       </c>
       <c r="H6" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -8991,19 +8991,19 @@
         <v>17</v>
       </c>
       <c r="H7" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -9029,19 +9029,19 @@
         <v>18</v>
       </c>
       <c r="H8" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -9067,19 +9067,19 @@
         <v>18</v>
       </c>
       <c r="H9" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -9105,19 +9105,19 @@
         <v>18</v>
       </c>
       <c r="H10" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -9143,19 +9143,19 @@
         <v>18</v>
       </c>
       <c r="H11" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -9181,19 +9181,19 @@
         <v>20</v>
       </c>
       <c r="H12" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L12" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -9219,19 +9219,19 @@
         <v>17</v>
       </c>
       <c r="H13" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L13" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -9257,19 +9257,19 @@
         <v>18</v>
       </c>
       <c r="H14" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -9295,19 +9295,19 @@
         <v>18</v>
       </c>
       <c r="H15" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -9333,19 +9333,19 @@
         <v>18</v>
       </c>
       <c r="H16" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L16" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -9371,19 +9371,19 @@
         <v>18</v>
       </c>
       <c r="H17" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -9409,19 +9409,19 @@
         <v>20</v>
       </c>
       <c r="H18" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L18" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -9447,19 +9447,19 @@
         <v>17</v>
       </c>
       <c r="H19" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L19" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -9485,19 +9485,19 @@
         <v>18</v>
       </c>
       <c r="H20" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L20" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -9523,19 +9523,19 @@
         <v>18</v>
       </c>
       <c r="H21" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L21" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -9561,19 +9561,19 @@
         <v>18</v>
       </c>
       <c r="H22" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L22" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -9599,19 +9599,19 @@
         <v>18</v>
       </c>
       <c r="H23" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L23" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -9637,19 +9637,19 @@
         <v>20</v>
       </c>
       <c r="H24" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L24" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -9675,19 +9675,19 @@
         <v>17</v>
       </c>
       <c r="H25" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L25" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -9713,19 +9713,19 @@
         <v>18</v>
       </c>
       <c r="H26" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L26" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -9751,19 +9751,19 @@
         <v>18</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -9789,19 +9789,19 @@
         <v>18</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -9827,19 +9827,19 @@
         <v>18</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -9865,19 +9865,19 @@
         <v>20</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -9903,19 +9903,19 @@
         <v>17</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -9941,19 +9941,19 @@
         <v>18</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -9979,19 +9979,19 @@
         <v>18</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -10017,19 +10017,19 @@
         <v>18</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -10055,19 +10055,19 @@
         <v>18</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -10093,19 +10093,19 @@
         <v>20</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -10131,19 +10131,19 @@
         <v>17</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -10169,19 +10169,19 @@
         <v>18</v>
       </c>
       <c r="H38" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L38" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -10207,19 +10207,19 @@
         <v>18</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -10245,19 +10245,19 @@
         <v>18</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -10283,19 +10283,19 @@
         <v>18</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -10321,19 +10321,19 @@
         <v>20</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -10359,19 +10359,19 @@
         <v>17</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -10397,19 +10397,19 @@
         <v>18</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -10435,19 +10435,19 @@
         <v>18</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -10473,19 +10473,19 @@
         <v>18</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -10511,19 +10511,19 @@
         <v>18</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -10549,19 +10549,19 @@
         <v>20</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -10587,19 +10587,19 @@
         <v>17</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -10625,19 +10625,19 @@
         <v>18</v>
       </c>
       <c r="H50" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L50" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="L50" s="3" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -10663,19 +10663,19 @@
         <v>18</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -10701,19 +10701,19 @@
         <v>18</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -10739,19 +10739,19 @@
         <v>18</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -10777,19 +10777,19 @@
         <v>20</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -10815,19 +10815,19 @@
         <v>17</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -10853,19 +10853,19 @@
         <v>18</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -10891,19 +10891,19 @@
         <v>18</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -10929,19 +10929,19 @@
         <v>18</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -10967,19 +10967,19 @@
         <v>18</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -11005,19 +11005,19 @@
         <v>20</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -11043,19 +11043,19 @@
         <v>17</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -11081,19 +11081,19 @@
         <v>18</v>
       </c>
       <c r="H62" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L62" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -11119,19 +11119,19 @@
         <v>18</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -11157,19 +11157,19 @@
         <v>18</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -11195,19 +11195,19 @@
         <v>18</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -11233,19 +11233,19 @@
         <v>20</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -11271,19 +11271,19 @@
         <v>17</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -11309,19 +11309,19 @@
         <v>18</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -11347,19 +11347,19 @@
         <v>18</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -11385,19 +11385,19 @@
         <v>18</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -11423,19 +11423,19 @@
         <v>18</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -11461,19 +11461,19 @@
         <v>20</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -11499,19 +11499,19 @@
         <v>17</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -11537,19 +11537,19 @@
         <v>18</v>
       </c>
       <c r="H74" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L74" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="J74" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="K74" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="L74" s="3" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -11575,19 +11575,19 @@
         <v>18</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -11613,19 +11613,19 @@
         <v>18</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -11651,19 +11651,19 @@
         <v>18</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -11689,19 +11689,19 @@
         <v>20</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -11727,19 +11727,19 @@
         <v>17</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -11765,19 +11765,19 @@
         <v>18</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -11803,19 +11803,19 @@
         <v>18</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -11841,19 +11841,19 @@
         <v>18</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -11879,19 +11879,19 @@
         <v>18</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -11917,19 +11917,19 @@
         <v>20</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -11955,19 +11955,19 @@
         <v>17</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -11993,19 +11993,19 @@
         <v>18</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -12031,19 +12031,19 @@
         <v>18</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -12069,19 +12069,19 @@
         <v>18</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -12107,19 +12107,19 @@
         <v>18</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -12145,19 +12145,19 @@
         <v>20</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -12183,19 +12183,19 @@
         <v>17</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L91" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -12221,19 +12221,19 @@
         <v>18</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -12259,19 +12259,19 @@
         <v>18</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -12297,19 +12297,19 @@
         <v>18</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L94" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -12335,19 +12335,19 @@
         <v>18</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -12373,19 +12373,19 @@
         <v>20</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L96" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -12411,19 +12411,19 @@
         <v>17</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -12449,19 +12449,19 @@
         <v>18</v>
       </c>
       <c r="H98" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L98" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="I98" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="J98" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="K98" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="L98" s="3" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -12487,19 +12487,19 @@
         <v>18</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L99" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
@@ -12525,19 +12525,19 @@
         <v>18</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L100" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
@@ -12563,19 +12563,19 @@
         <v>18</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L101" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -12601,19 +12601,19 @@
         <v>20</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L102" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
@@ -12639,19 +12639,19 @@
         <v>17</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L103" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -12677,19 +12677,19 @@
         <v>18</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L104" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -12715,19 +12715,19 @@
         <v>18</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L105" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -12753,19 +12753,19 @@
         <v>18</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L106" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
@@ -12791,19 +12791,19 @@
         <v>18</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L107" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
@@ -12829,19 +12829,19 @@
         <v>20</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L108" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
@@ -12867,19 +12867,19 @@
         <v>17</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L109" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
@@ -12905,19 +12905,19 @@
         <v>18</v>
       </c>
       <c r="H110" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="K110" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L110" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="I110" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="J110" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="K110" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="L110" s="3" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
@@ -12943,19 +12943,19 @@
         <v>18</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L111" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
@@ -12981,19 +12981,19 @@
         <v>18</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L112" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
@@ -13019,19 +13019,19 @@
         <v>18</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L113" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
@@ -13057,19 +13057,19 @@
         <v>20</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L114" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
@@ -13095,19 +13095,19 @@
         <v>17</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L115" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
@@ -13133,19 +13133,19 @@
         <v>18</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L116" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
@@ -13171,19 +13171,19 @@
         <v>18</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L117" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
@@ -13209,19 +13209,19 @@
         <v>18</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K118" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L118" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
@@ -13247,19 +13247,19 @@
         <v>18</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K119" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L119" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
@@ -13285,19 +13285,19 @@
         <v>20</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L120" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
@@ -13323,19 +13323,19 @@
         <v>17</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K121" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L121" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
@@ -13361,19 +13361,19 @@
         <v>18</v>
       </c>
       <c r="H122" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="K122" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L122" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="I122" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="J122" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="K122" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="L122" s="3" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
@@ -13399,19 +13399,19 @@
         <v>18</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K123" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L123" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
@@ -13437,19 +13437,19 @@
         <v>18</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L124" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
@@ -13475,19 +13475,19 @@
         <v>18</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K125" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L125" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
@@ -13513,19 +13513,19 @@
         <v>20</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K126" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L126" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
@@ -13551,19 +13551,19 @@
         <v>17</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L127" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
@@ -13589,19 +13589,19 @@
         <v>18</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L128" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
@@ -13627,19 +13627,19 @@
         <v>18</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K129" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L129" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
@@ -13665,19 +13665,19 @@
         <v>18</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K130" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L130" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
@@ -13703,19 +13703,19 @@
         <v>18</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K131" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L131" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
@@ -13741,19 +13741,19 @@
         <v>20</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K132" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L132" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
@@ -13779,19 +13779,19 @@
         <v>17</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L133" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
@@ -13817,19 +13817,19 @@
         <v>18</v>
       </c>
       <c r="H134" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="I134" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="J134" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="K134" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L134" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="I134" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="J134" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="K134" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="L134" s="3" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
@@ -13855,19 +13855,19 @@
         <v>18</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L135" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
@@ -13893,19 +13893,19 @@
         <v>18</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K136" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L136" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
@@ -13931,19 +13931,19 @@
         <v>18</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K137" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L137" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
@@ -13969,19 +13969,19 @@
         <v>20</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K138" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L138" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
@@ -14007,19 +14007,19 @@
         <v>17</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J139" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K139" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L139" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
@@ -14045,19 +14045,19 @@
         <v>18</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J140" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L140" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
@@ -14083,19 +14083,19 @@
         <v>18</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K141" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L141" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
@@ -14121,19 +14121,19 @@
         <v>18</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K142" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L142" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
@@ -14159,19 +14159,19 @@
         <v>18</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I143" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J143" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K143" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L143" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
@@ -14197,19 +14197,19 @@
         <v>20</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K144" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L144" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
@@ -14235,19 +14235,19 @@
         <v>17</v>
       </c>
       <c r="H145" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I145" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K145" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L145" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
@@ -14273,19 +14273,19 @@
         <v>18</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J146" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K146" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L146" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
@@ -14311,19 +14311,19 @@
         <v>18</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K147" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L147" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
@@ -14349,19 +14349,19 @@
         <v>18</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J148" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K148" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L148" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
@@ -14387,19 +14387,19 @@
         <v>18</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I149" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J149" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K149" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L149" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
@@ -14425,19 +14425,19 @@
         <v>20</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J150" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K150" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L150" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
@@ -14463,19 +14463,19 @@
         <v>17</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J151" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K151" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L151" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
@@ -14501,19 +14501,19 @@
         <v>18</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I152" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J152" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K152" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L152" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
@@ -14539,19 +14539,19 @@
         <v>18</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I153" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J153" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K153" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L153" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
@@ -14577,19 +14577,19 @@
         <v>18</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J154" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K154" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L154" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
@@ -14615,19 +14615,19 @@
         <v>18</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I155" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J155" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K155" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L155" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
@@ -14653,19 +14653,19 @@
         <v>20</v>
       </c>
       <c r="H156" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I156" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J156" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K156" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L156" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
@@ -14691,19 +14691,19 @@
         <v>17</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I157" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J157" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K157" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L157" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
@@ -14729,19 +14729,19 @@
         <v>19</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I158" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J158" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K158" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L158" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
@@ -14767,19 +14767,19 @@
         <v>19</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I159" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J159" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K159" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L159" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
@@ -14805,19 +14805,19 @@
         <v>19</v>
       </c>
       <c r="H160" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I160" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J160" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K160" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L160" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
@@ -14843,19 +14843,19 @@
         <v>19</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I161" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J161" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K161" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L161" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
@@ -14881,19 +14881,19 @@
         <v>19</v>
       </c>
       <c r="H162" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I162" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J162" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K162" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L162" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
@@ -14919,19 +14919,19 @@
         <v>19</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I163" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J163" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K163" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L163" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
@@ -14957,19 +14957,19 @@
         <v>19</v>
       </c>
       <c r="H164" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I164" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J164" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K164" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L164" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
@@ -14995,19 +14995,19 @@
         <v>19</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I165" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J165" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K165" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L165" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
@@ -15033,19 +15033,19 @@
         <v>19</v>
       </c>
       <c r="H166" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I166" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J166" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K166" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L166" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
@@ -15071,19 +15071,19 @@
         <v>19</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I167" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J167" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K167" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L167" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
@@ -15109,19 +15109,19 @@
         <v>19</v>
       </c>
       <c r="H168" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I168" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J168" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K168" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L168" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
@@ -15147,19 +15147,19 @@
         <v>19</v>
       </c>
       <c r="H169" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I169" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J169" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K169" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L169" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
@@ -15185,19 +15185,19 @@
         <v>18</v>
       </c>
       <c r="H170" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I170" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J170" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K170" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L170" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
@@ -15223,19 +15223,19 @@
         <v>18</v>
       </c>
       <c r="H171" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I171" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J171" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K171" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L171" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
@@ -15261,19 +15261,19 @@
         <v>18</v>
       </c>
       <c r="H172" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I172" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J172" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K172" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L172" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
@@ -15299,19 +15299,19 @@
         <v>18</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I173" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J173" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K173" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L173" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
@@ -15337,19 +15337,19 @@
         <v>20</v>
       </c>
       <c r="H174" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I174" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J174" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K174" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L174" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
@@ -15375,19 +15375,19 @@
         <v>17</v>
       </c>
       <c r="H175" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I175" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J175" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K175" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L175" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
@@ -15413,19 +15413,19 @@
         <v>18</v>
       </c>
       <c r="H176" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I176" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J176" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K176" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L176" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
@@ -15451,19 +15451,19 @@
         <v>18</v>
       </c>
       <c r="H177" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I177" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J177" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K177" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L177" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
@@ -15489,19 +15489,19 @@
         <v>18</v>
       </c>
       <c r="H178" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I178" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J178" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K178" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L178" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
@@ -15527,19 +15527,19 @@
         <v>18</v>
       </c>
       <c r="H179" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I179" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J179" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K179" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L179" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
@@ -15565,19 +15565,19 @@
         <v>20</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I180" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J180" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K180" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L180" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
@@ -15603,19 +15603,19 @@
         <v>17</v>
       </c>
       <c r="H181" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I181" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J181" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K181" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L181" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/cea/databases/CH/Archetypes/Archetypes_properties.xlsx
+++ b/cea/databases/CH/Archetypes/Archetypes_properties.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5181" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4457" uniqueCount="281">
   <si>
     <t>Code</t>
   </si>
@@ -867,40 +867,7 @@
     <t>T5</t>
   </si>
   <si>
-    <t>ECONOMIZER</t>
-  </si>
-  <si>
-    <t>MVE0</t>
-  </si>
-  <si>
-    <t>WVE1</t>
-  </si>
-  <si>
-    <t>NFL0</t>
-  </si>
-  <si>
-    <t>HRE0</t>
-  </si>
-  <si>
-    <t>ECO0</t>
-  </si>
-  <si>
-    <t>MVE1</t>
-  </si>
-  <si>
-    <t>WVE0</t>
-  </si>
-  <si>
-    <t>MECH_VENT</t>
-  </si>
-  <si>
-    <t>WIN_VENT</t>
-  </si>
-  <si>
-    <t>HEAT_REC</t>
-  </si>
-  <si>
-    <t>NIGHT_FLSH</t>
+    <t>type_vent</t>
   </si>
 </sst>
 </file>
@@ -8718,10 +8685,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L181"/>
+  <dimension ref="A1:H181"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8732,15 +8699,11 @@
     <col min="4" max="5" width="9.140625" style="4"/>
     <col min="6" max="6" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="11.28515625" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -8763,22 +8726,10 @@
         <v>9</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="L1" s="13" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>29</v>
       </c>
@@ -8801,22 +8752,10 @@
         <v>18</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>30</v>
       </c>
@@ -8839,22 +8778,10 @@
         <v>18</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>31</v>
       </c>
@@ -8877,22 +8804,10 @@
         <v>18</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>32</v>
       </c>
@@ -8915,22 +8830,10 @@
         <v>18</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>33</v>
       </c>
@@ -8953,22 +8856,10 @@
         <v>20</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>34</v>
       </c>
@@ -8991,22 +8882,10 @@
         <v>17</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>35</v>
       </c>
@@ -9029,22 +8908,10 @@
         <v>18</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>36</v>
       </c>
@@ -9067,22 +8934,10 @@
         <v>18</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>37</v>
       </c>
@@ -9105,22 +8960,10 @@
         <v>18</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>38</v>
       </c>
@@ -9143,22 +8986,10 @@
         <v>18</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>39</v>
       </c>
@@ -9181,22 +9012,10 @@
         <v>20</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>40</v>
       </c>
@@ -9219,22 +9038,10 @@
         <v>17</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>53</v>
       </c>
@@ -9257,22 +9064,10 @@
         <v>18</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>54</v>
       </c>
@@ -9295,22 +9090,10 @@
         <v>18</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>55</v>
       </c>
@@ -9333,22 +9116,10 @@
         <v>18</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>56</v>
       </c>
@@ -9371,22 +9142,10 @@
         <v>18</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>57</v>
       </c>
@@ -9409,22 +9168,10 @@
         <v>20</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>58</v>
       </c>
@@ -9447,22 +9194,10 @@
         <v>17</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>59</v>
       </c>
@@ -9485,22 +9220,10 @@
         <v>18</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>60</v>
       </c>
@@ -9523,22 +9246,10 @@
         <v>18</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>61</v>
       </c>
@@ -9561,22 +9272,10 @@
         <v>18</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>62</v>
       </c>
@@ -9599,22 +9298,10 @@
         <v>18</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>63</v>
       </c>
@@ -9637,22 +9324,10 @@
         <v>20</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>64</v>
       </c>
@@ -9675,22 +9350,10 @@
         <v>17</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>41</v>
       </c>
@@ -9713,22 +9376,10 @@
         <v>18</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>42</v>
       </c>
@@ -9751,22 +9402,10 @@
         <v>18</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>43</v>
       </c>
@@ -9789,22 +9428,10 @@
         <v>18</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>44</v>
       </c>
@@ -9827,22 +9454,10 @@
         <v>18</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>45</v>
       </c>
@@ -9865,22 +9480,10 @@
         <v>20</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>46</v>
       </c>
@@ -9903,22 +9506,10 @@
         <v>17</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>47</v>
       </c>
@@ -9941,22 +9532,10 @@
         <v>18</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>48</v>
       </c>
@@ -9979,22 +9558,10 @@
         <v>18</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>49</v>
       </c>
@@ -10017,22 +9584,10 @@
         <v>18</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>50</v>
       </c>
@@ -10055,22 +9610,10 @@
         <v>18</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>51</v>
       </c>
@@ -10093,22 +9636,10 @@
         <v>20</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L36" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>52</v>
       </c>
@@ -10131,22 +9662,10 @@
         <v>17</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>65</v>
       </c>
@@ -10169,22 +9688,10 @@
         <v>18</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>66</v>
       </c>
@@ -10207,22 +9714,10 @@
         <v>18</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>67</v>
       </c>
@@ -10245,22 +9740,10 @@
         <v>18</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>68</v>
       </c>
@@ -10283,22 +9766,10 @@
         <v>18</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>69</v>
       </c>
@@ -10321,22 +9792,10 @@
         <v>20</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>70</v>
       </c>
@@ -10359,22 +9818,10 @@
         <v>17</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>71</v>
       </c>
@@ -10397,22 +9844,10 @@
         <v>18</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>72</v>
       </c>
@@ -10435,22 +9870,10 @@
         <v>18</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>73</v>
       </c>
@@ -10473,22 +9896,10 @@
         <v>18</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>74</v>
       </c>
@@ -10511,22 +9922,10 @@
         <v>18</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>75</v>
       </c>
@@ -10549,22 +9948,10 @@
         <v>20</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>76</v>
       </c>
@@ -10587,22 +9974,10 @@
         <v>17</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>77</v>
       </c>
@@ -10625,22 +10000,10 @@
         <v>18</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L50" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>78</v>
       </c>
@@ -10663,22 +10026,10 @@
         <v>18</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L51" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>79</v>
       </c>
@@ -10701,22 +10052,10 @@
         <v>18</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>80</v>
       </c>
@@ -10739,22 +10078,10 @@
         <v>18</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K53" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L53" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>81</v>
       </c>
@@ -10777,22 +10104,10 @@
         <v>20</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>82</v>
       </c>
@@ -10815,22 +10130,10 @@
         <v>17</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L55" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>83</v>
       </c>
@@ -10853,22 +10156,10 @@
         <v>18</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L56" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>84</v>
       </c>
@@ -10891,22 +10182,10 @@
         <v>18</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>85</v>
       </c>
@@ -10929,22 +10208,10 @@
         <v>18</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>86</v>
       </c>
@@ -10967,22 +10234,10 @@
         <v>18</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>87</v>
       </c>
@@ -11005,22 +10260,10 @@
         <v>20</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>88</v>
       </c>
@@ -11043,22 +10286,10 @@
         <v>17</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K61" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L61" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>257</v>
       </c>
@@ -11081,22 +10312,10 @@
         <v>18</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>258</v>
       </c>
@@ -11119,22 +10338,10 @@
         <v>18</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J63" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K63" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L63" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>259</v>
       </c>
@@ -11157,22 +10364,10 @@
         <v>18</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L64" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>260</v>
       </c>
@@ -11195,22 +10390,10 @@
         <v>18</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J65" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K65" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L65" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>261</v>
       </c>
@@ -11233,22 +10416,10 @@
         <v>20</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>262</v>
       </c>
@@ -11271,22 +10442,10 @@
         <v>17</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J67" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K67" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L67" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>263</v>
       </c>
@@ -11309,22 +10468,10 @@
         <v>18</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K68" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L68" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>264</v>
       </c>
@@ -11347,22 +10494,10 @@
         <v>18</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J69" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K69" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L69" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>265</v>
       </c>
@@ -11385,22 +10520,10 @@
         <v>18</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L70" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>266</v>
       </c>
@@ -11423,22 +10546,10 @@
         <v>18</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J71" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K71" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L71" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>267</v>
       </c>
@@ -11461,22 +10572,10 @@
         <v>20</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>268</v>
       </c>
@@ -11499,22 +10598,10 @@
         <v>17</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J73" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K73" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L73" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>101</v>
       </c>
@@ -11537,22 +10624,10 @@
         <v>18</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="J74" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K74" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L74" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
         <v>102</v>
       </c>
@@ -11575,22 +10650,10 @@
         <v>18</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I75" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J75" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K75" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L75" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>103</v>
       </c>
@@ -11613,22 +10676,10 @@
         <v>18</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
         <v>104</v>
       </c>
@@ -11651,22 +10702,10 @@
         <v>18</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J77" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K77" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L77" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
         <v>105</v>
       </c>
@@ -11689,22 +10728,10 @@
         <v>20</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I78" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J78" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K78" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L78" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
         <v>106</v>
       </c>
@@ -11727,22 +10754,10 @@
         <v>17</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J79" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K79" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L79" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
         <v>107</v>
       </c>
@@ -11765,22 +10780,10 @@
         <v>18</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I80" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J80" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K80" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L80" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
         <v>108</v>
       </c>
@@ -11803,22 +10806,10 @@
         <v>18</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
         <v>109</v>
       </c>
@@ -11841,22 +10832,10 @@
         <v>18</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I82" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J82" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K82" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L82" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
         <v>110</v>
       </c>
@@ -11879,22 +10858,10 @@
         <v>18</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
         <v>111</v>
       </c>
@@ -11917,22 +10884,10 @@
         <v>20</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I84" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J84" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K84" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L84" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
         <v>112</v>
       </c>
@@ -11955,22 +10910,10 @@
         <v>17</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I85" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J85" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K85" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L85" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
         <v>113</v>
       </c>
@@ -11993,22 +10936,10 @@
         <v>18</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I86" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J86" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K86" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L86" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
         <v>114</v>
       </c>
@@ -12031,22 +10962,10 @@
         <v>18</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I87" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J87" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K87" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L87" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
         <v>115</v>
       </c>
@@ -12069,22 +10988,10 @@
         <v>18</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I88" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J88" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K88" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L88" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
         <v>116</v>
       </c>
@@ -12107,22 +11014,10 @@
         <v>18</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
         <v>117</v>
       </c>
@@ -12145,22 +11040,10 @@
         <v>20</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I90" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J90" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K90" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L90" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
         <v>118</v>
       </c>
@@ -12183,22 +11066,10 @@
         <v>17</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
         <v>119</v>
       </c>
@@ -12221,22 +11092,10 @@
         <v>18</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I92" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J92" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K92" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L92" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
         <v>120</v>
       </c>
@@ -12259,22 +11118,10 @@
         <v>18</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I93" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J93" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K93" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L93" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
         <v>121</v>
       </c>
@@ -12297,22 +11144,10 @@
         <v>18</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
         <v>122</v>
       </c>
@@ -12335,22 +11170,10 @@
         <v>18</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I95" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J95" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K95" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L95" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
         <v>123</v>
       </c>
@@ -12373,22 +11196,10 @@
         <v>20</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I96" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J96" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K96" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L96" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
         <v>124</v>
       </c>
@@ -12411,22 +11222,10 @@
         <v>17</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I97" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J97" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K97" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L97" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
         <v>125</v>
       </c>
@@ -12449,22 +11248,10 @@
         <v>18</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="I98" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="J98" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K98" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L98" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
         <v>126</v>
       </c>
@@ -12487,22 +11274,10 @@
         <v>18</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I99" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J99" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K99" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L99" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
         <v>127</v>
       </c>
@@ -12525,22 +11300,10 @@
         <v>18</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
         <v>128</v>
       </c>
@@ -12563,22 +11326,10 @@
         <v>18</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
         <v>129</v>
       </c>
@@ -12601,22 +11352,10 @@
         <v>20</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
         <v>130</v>
       </c>
@@ -12639,22 +11378,10 @@
         <v>17</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I103" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J103" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K103" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L103" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
         <v>131</v>
       </c>
@@ -12677,22 +11404,10 @@
         <v>18</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I104" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J104" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K104" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L104" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
         <v>132</v>
       </c>
@@ -12715,22 +11430,10 @@
         <v>18</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I105" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J105" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K105" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L105" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
         <v>133</v>
       </c>
@@ -12753,22 +11456,10 @@
         <v>18</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I106" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J106" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K106" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L106" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
         <v>134</v>
       </c>
@@ -12791,22 +11482,10 @@
         <v>18</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I107" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J107" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K107" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L107" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
         <v>135</v>
       </c>
@@ -12829,22 +11508,10 @@
         <v>20</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I108" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J108" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K108" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L108" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
         <v>136</v>
       </c>
@@ -12867,22 +11534,10 @@
         <v>17</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I109" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J109" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K109" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L109" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
         <v>137</v>
       </c>
@@ -12905,22 +11560,10 @@
         <v>18</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="I110" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="J110" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K110" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L110" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
         <v>138</v>
       </c>
@@ -12943,22 +11586,10 @@
         <v>18</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I111" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J111" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K111" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L111" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
         <v>139</v>
       </c>
@@ -12981,22 +11612,10 @@
         <v>18</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I112" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J112" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K112" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L112" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
         <v>140</v>
       </c>
@@ -13019,22 +11638,10 @@
         <v>18</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I113" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J113" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K113" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L113" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
         <v>141</v>
       </c>
@@ -13057,22 +11664,10 @@
         <v>20</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I114" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J114" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K114" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L114" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
         <v>142</v>
       </c>
@@ -13095,22 +11690,10 @@
         <v>17</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I115" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J115" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K115" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L115" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
         <v>143</v>
       </c>
@@ -13133,22 +11716,10 @@
         <v>18</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I116" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J116" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K116" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L116" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
         <v>144</v>
       </c>
@@ -13171,22 +11742,10 @@
         <v>18</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I117" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J117" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K117" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L117" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
         <v>145</v>
       </c>
@@ -13209,22 +11768,10 @@
         <v>18</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I118" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J118" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K118" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L118" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
         <v>146</v>
       </c>
@@ -13247,22 +11794,10 @@
         <v>18</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I119" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J119" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K119" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L119" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
         <v>147</v>
       </c>
@@ -13285,22 +11820,10 @@
         <v>20</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I120" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J120" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K120" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L120" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
         <v>148</v>
       </c>
@@ -13323,22 +11846,10 @@
         <v>17</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I121" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J121" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K121" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L121" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
         <v>149</v>
       </c>
@@ -13361,22 +11872,10 @@
         <v>18</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="I122" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="J122" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K122" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L122" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
         <v>150</v>
       </c>
@@ -13399,22 +11898,10 @@
         <v>18</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I123" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J123" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K123" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L123" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
         <v>151</v>
       </c>
@@ -13437,22 +11924,10 @@
         <v>18</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I124" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J124" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K124" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L124" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
         <v>152</v>
       </c>
@@ -13475,22 +11950,10 @@
         <v>18</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I125" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J125" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K125" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L125" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="13" t="s">
         <v>153</v>
       </c>
@@ -13513,22 +11976,10 @@
         <v>20</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I126" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J126" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K126" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L126" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="s">
         <v>154</v>
       </c>
@@ -13551,22 +12002,10 @@
         <v>17</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I127" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J127" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K127" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L127" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="13" t="s">
         <v>155</v>
       </c>
@@ -13589,22 +12028,10 @@
         <v>18</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I128" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J128" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K128" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L128" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="s">
         <v>156</v>
       </c>
@@ -13627,22 +12054,10 @@
         <v>18</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I129" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J129" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K129" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L129" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
         <v>157</v>
       </c>
@@ -13665,22 +12080,10 @@
         <v>18</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I130" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J130" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K130" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L130" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
         <v>158</v>
       </c>
@@ -13703,22 +12106,10 @@
         <v>18</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I131" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J131" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K131" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L131" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
         <v>159</v>
       </c>
@@ -13741,22 +12132,10 @@
         <v>20</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I132" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J132" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K132" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L132" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
         <v>160</v>
       </c>
@@ -13779,22 +12158,10 @@
         <v>17</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I133" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J133" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K133" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L133" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="13" t="s">
         <v>161</v>
       </c>
@@ -13817,22 +12184,10 @@
         <v>18</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="I134" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="J134" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K134" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L134" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="13" t="s">
         <v>162</v>
       </c>
@@ -13855,22 +12210,10 @@
         <v>18</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I135" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J135" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K135" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L135" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
         <v>163</v>
       </c>
@@ -13893,22 +12236,10 @@
         <v>18</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I136" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J136" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K136" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L136" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
         <v>164</v>
       </c>
@@ -13931,22 +12262,10 @@
         <v>18</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I137" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J137" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K137" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L137" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="13" t="s">
         <v>165</v>
       </c>
@@ -13969,22 +12288,10 @@
         <v>20</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I138" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J138" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K138" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L138" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="13" t="s">
         <v>166</v>
       </c>
@@ -14007,22 +12314,10 @@
         <v>17</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I139" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J139" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K139" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L139" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="13" t="s">
         <v>167</v>
       </c>
@@ -14045,22 +12340,10 @@
         <v>18</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I140" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J140" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K140" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L140" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="s">
         <v>168</v>
       </c>
@@ -14083,22 +12366,10 @@
         <v>18</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I141" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J141" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K141" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L141" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="13" t="s">
         <v>169</v>
       </c>
@@ -14121,22 +12392,10 @@
         <v>18</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I142" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J142" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K142" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L142" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="13" t="s">
         <v>170</v>
       </c>
@@ -14159,22 +12418,10 @@
         <v>18</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I143" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J143" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K143" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L143" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
         <v>171</v>
       </c>
@@ -14197,22 +12444,10 @@
         <v>20</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I144" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J144" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K144" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L144" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
         <v>172</v>
       </c>
@@ -14235,22 +12470,10 @@
         <v>17</v>
       </c>
       <c r="H145" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I145" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J145" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K145" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L145" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="13" t="s">
         <v>173</v>
       </c>
@@ -14273,22 +12496,10 @@
         <v>18</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I146" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J146" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K146" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L146" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="13" t="s">
         <v>174</v>
       </c>
@@ -14311,22 +12522,10 @@
         <v>18</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I147" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J147" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K147" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L147" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="13" t="s">
         <v>175</v>
       </c>
@@ -14349,22 +12548,10 @@
         <v>18</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I148" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J148" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K148" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L148" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="13" t="s">
         <v>176</v>
       </c>
@@ -14387,22 +12574,10 @@
         <v>18</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I149" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J149" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K149" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L149" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="13" t="s">
         <v>177</v>
       </c>
@@ -14425,22 +12600,10 @@
         <v>20</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I150" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J150" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K150" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L150" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="13" t="s">
         <v>178</v>
       </c>
@@ -14463,22 +12626,10 @@
         <v>17</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I151" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J151" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K151" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L151" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="13" t="s">
         <v>179</v>
       </c>
@@ -14501,22 +12652,10 @@
         <v>18</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I152" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J152" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K152" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L152" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="13" t="s">
         <v>180</v>
       </c>
@@ -14539,22 +12678,10 @@
         <v>18</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I153" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J153" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K153" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L153" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="13" t="s">
         <v>181</v>
       </c>
@@ -14577,22 +12704,10 @@
         <v>18</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I154" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J154" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K154" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L154" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="13" t="s">
         <v>182</v>
       </c>
@@ -14615,22 +12730,10 @@
         <v>18</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I155" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J155" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K155" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L155" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="13" t="s">
         <v>183</v>
       </c>
@@ -14653,22 +12756,10 @@
         <v>20</v>
       </c>
       <c r="H156" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I156" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J156" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K156" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L156" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="13" t="s">
         <v>184</v>
       </c>
@@ -14691,22 +12782,10 @@
         <v>17</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I157" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J157" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K157" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L157" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="13" t="s">
         <v>185</v>
       </c>
@@ -14729,22 +12808,10 @@
         <v>19</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I158" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J158" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K158" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L158" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="13" t="s">
         <v>186</v>
       </c>
@@ -14767,22 +12834,10 @@
         <v>19</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I159" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J159" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K159" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L159" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="13" t="s">
         <v>187</v>
       </c>
@@ -14805,22 +12860,10 @@
         <v>19</v>
       </c>
       <c r="H160" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I160" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J160" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K160" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L160" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="13" t="s">
         <v>188</v>
       </c>
@@ -14843,22 +12886,10 @@
         <v>19</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I161" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J161" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K161" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L161" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="13" t="s">
         <v>189</v>
       </c>
@@ -14881,22 +12912,10 @@
         <v>19</v>
       </c>
       <c r="H162" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I162" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J162" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K162" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L162" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="13" t="s">
         <v>190</v>
       </c>
@@ -14919,22 +12938,10 @@
         <v>19</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I163" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J163" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K163" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L163" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="13" t="s">
         <v>191</v>
       </c>
@@ -14957,22 +12964,10 @@
         <v>19</v>
       </c>
       <c r="H164" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I164" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J164" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K164" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L164" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="13" t="s">
         <v>192</v>
       </c>
@@ -14995,22 +12990,10 @@
         <v>19</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I165" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J165" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K165" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L165" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="13" t="s">
         <v>193</v>
       </c>
@@ -15033,22 +13016,10 @@
         <v>19</v>
       </c>
       <c r="H166" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I166" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J166" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K166" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L166" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="13" t="s">
         <v>194</v>
       </c>
@@ -15071,22 +13042,10 @@
         <v>19</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I167" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J167" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K167" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L167" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="13" t="s">
         <v>195</v>
       </c>
@@ -15109,22 +13068,10 @@
         <v>19</v>
       </c>
       <c r="H168" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I168" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J168" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K168" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L168" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="13" t="s">
         <v>196</v>
       </c>
@@ -15147,22 +13094,10 @@
         <v>19</v>
       </c>
       <c r="H169" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I169" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J169" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K169" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L169" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="13" t="s">
         <v>197</v>
       </c>
@@ -15185,22 +13120,10 @@
         <v>18</v>
       </c>
       <c r="H170" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I170" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J170" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K170" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L170" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="13" t="s">
         <v>198</v>
       </c>
@@ -15223,22 +13146,10 @@
         <v>18</v>
       </c>
       <c r="H171" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I171" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J171" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K171" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L171" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="13" t="s">
         <v>199</v>
       </c>
@@ -15261,22 +13172,10 @@
         <v>18</v>
       </c>
       <c r="H172" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I172" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J172" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K172" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L172" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="13" t="s">
         <v>200</v>
       </c>
@@ -15299,22 +13198,10 @@
         <v>18</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I173" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J173" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K173" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L173" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="13" t="s">
         <v>201</v>
       </c>
@@ -15337,22 +13224,10 @@
         <v>20</v>
       </c>
       <c r="H174" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I174" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J174" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K174" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L174" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="13" t="s">
         <v>202</v>
       </c>
@@ -15375,22 +13250,10 @@
         <v>17</v>
       </c>
       <c r="H175" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I175" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J175" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K175" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L175" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="13" t="s">
         <v>203</v>
       </c>
@@ -15413,22 +13276,10 @@
         <v>18</v>
       </c>
       <c r="H176" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I176" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J176" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K176" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L176" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="13" t="s">
         <v>204</v>
       </c>
@@ -15451,22 +13302,10 @@
         <v>18</v>
       </c>
       <c r="H177" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I177" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J177" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K177" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L177" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="13" t="s">
         <v>205</v>
       </c>
@@ -15489,22 +13328,10 @@
         <v>18</v>
       </c>
       <c r="H178" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I178" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J178" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K178" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L178" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="13" t="s">
         <v>206</v>
       </c>
@@ -15527,22 +13354,10 @@
         <v>18</v>
       </c>
       <c r="H179" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I179" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J179" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K179" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L179" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="13" t="s">
         <v>207</v>
       </c>
@@ -15565,22 +13380,10 @@
         <v>20</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I180" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J180" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K180" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L180" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="13" t="s">
         <v>208</v>
       </c>
@@ -15603,19 +13406,7 @@
         <v>17</v>
       </c>
       <c r="H181" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I181" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J181" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K181" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L181" s="3" t="s">
-        <v>285</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/cea/databases/CH/Archetypes/Archetypes_properties.xlsx
+++ b/cea/databases/CH/Archetypes/Archetypes_properties.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jimeno\Documents\CEAforArcGIS\cea\databases\CH\Archetypes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Documents\GitHub\CEAforArcGIS\cea\databases\CH\Archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" tabRatio="785"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" tabRatio="785" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ARCHITECTURE" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4276" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4457" uniqueCount="281">
   <si>
     <t>Code</t>
   </si>
@@ -865,6 +865,9 @@
   </si>
   <si>
     <t>T5</t>
+  </si>
+  <si>
+    <t>type_vent</t>
   </si>
 </sst>
 </file>
@@ -1768,23 +1771,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.1328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1328125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.1328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.86328125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.59765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="10.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="12.59765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1328125" style="1"/>
+    <col min="1" max="1" width="18.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1822,7 +1825,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>29</v>
       </c>
@@ -1860,7 +1863,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>30</v>
       </c>
@@ -1898,7 +1901,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>31</v>
       </c>
@@ -1936,7 +1939,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>32</v>
       </c>
@@ -1974,7 +1977,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>33</v>
       </c>
@@ -2012,7 +2015,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>34</v>
       </c>
@@ -2050,7 +2053,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>35</v>
       </c>
@@ -2088,7 +2091,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>36</v>
       </c>
@@ -2126,7 +2129,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>37</v>
       </c>
@@ -2164,7 +2167,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>38</v>
       </c>
@@ -2202,7 +2205,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>39</v>
       </c>
@@ -2240,7 +2243,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>40</v>
       </c>
@@ -2278,7 +2281,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>53</v>
       </c>
@@ -2316,7 +2319,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>54</v>
       </c>
@@ -2354,7 +2357,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>55</v>
       </c>
@@ -2392,7 +2395,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>56</v>
       </c>
@@ -2430,7 +2433,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>57</v>
       </c>
@@ -2468,7 +2471,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>58</v>
       </c>
@@ -2506,7 +2509,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>59</v>
       </c>
@@ -2544,7 +2547,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>60</v>
       </c>
@@ -2582,7 +2585,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>61</v>
       </c>
@@ -2620,7 +2623,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>62</v>
       </c>
@@ -2658,7 +2661,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>63</v>
       </c>
@@ -2696,7 +2699,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>64</v>
       </c>
@@ -2734,7 +2737,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>41</v>
       </c>
@@ -2773,7 +2776,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>42</v>
       </c>
@@ -2812,7 +2815,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>43</v>
       </c>
@@ -2851,7 +2854,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>44</v>
       </c>
@@ -2890,7 +2893,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>45</v>
       </c>
@@ -2929,7 +2932,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>46</v>
       </c>
@@ -2968,7 +2971,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>47</v>
       </c>
@@ -3007,7 +3010,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>48</v>
       </c>
@@ -3046,7 +3049,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>49</v>
       </c>
@@ -3085,7 +3088,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>50</v>
       </c>
@@ -3124,7 +3127,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>51</v>
       </c>
@@ -3163,7 +3166,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>52</v>
       </c>
@@ -3202,7 +3205,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>65</v>
       </c>
@@ -3240,7 +3243,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>66</v>
       </c>
@@ -3278,7 +3281,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>67</v>
       </c>
@@ -3316,7 +3319,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>68</v>
       </c>
@@ -3354,7 +3357,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>69</v>
       </c>
@@ -3392,7 +3395,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>70</v>
       </c>
@@ -3430,7 +3433,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>71</v>
       </c>
@@ -3468,7 +3471,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>72</v>
       </c>
@@ -3506,7 +3509,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>73</v>
       </c>
@@ -3544,7 +3547,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>74</v>
       </c>
@@ -3582,7 +3585,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>75</v>
       </c>
@@ -3620,7 +3623,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>76</v>
       </c>
@@ -3658,7 +3661,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>77</v>
       </c>
@@ -3696,7 +3699,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>78</v>
       </c>
@@ -3734,7 +3737,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>79</v>
       </c>
@@ -3772,7 +3775,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>80</v>
       </c>
@@ -3810,7 +3813,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>81</v>
       </c>
@@ -3848,7 +3851,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>82</v>
       </c>
@@ -3886,7 +3889,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>83</v>
       </c>
@@ -3924,7 +3927,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>84</v>
       </c>
@@ -3962,7 +3965,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>85</v>
       </c>
@@ -4000,7 +4003,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>86</v>
       </c>
@@ -4038,7 +4041,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>87</v>
       </c>
@@ -4076,7 +4079,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>88</v>
       </c>
@@ -4114,7 +4117,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>245</v>
       </c>
@@ -4152,7 +4155,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>246</v>
       </c>
@@ -4190,7 +4193,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>247</v>
       </c>
@@ -4228,7 +4231,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>248</v>
       </c>
@@ -4266,7 +4269,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>249</v>
       </c>
@@ -4304,7 +4307,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>250</v>
       </c>
@@ -4342,7 +4345,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>251</v>
       </c>
@@ -4380,7 +4383,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>252</v>
       </c>
@@ -4418,7 +4421,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>253</v>
       </c>
@@ -4456,7 +4459,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>254</v>
       </c>
@@ -4494,7 +4497,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>255</v>
       </c>
@@ -4532,7 +4535,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>256</v>
       </c>
@@ -4570,7 +4573,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>101</v>
       </c>
@@ -4608,7 +4611,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
         <v>102</v>
       </c>
@@ -4646,7 +4649,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>103</v>
       </c>
@@ -4684,7 +4687,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
         <v>104</v>
       </c>
@@ -4722,7 +4725,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
         <v>105</v>
       </c>
@@ -4760,7 +4763,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
         <v>106</v>
       </c>
@@ -4798,7 +4801,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
         <v>107</v>
       </c>
@@ -4836,7 +4839,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
         <v>108</v>
       </c>
@@ -4874,7 +4877,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
         <v>109</v>
       </c>
@@ -4912,7 +4915,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
         <v>110</v>
       </c>
@@ -4950,7 +4953,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
         <v>111</v>
       </c>
@@ -4988,7 +4991,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
         <v>112</v>
       </c>
@@ -5026,7 +5029,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
         <v>113</v>
       </c>
@@ -5064,7 +5067,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
         <v>114</v>
       </c>
@@ -5102,7 +5105,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
         <v>115</v>
       </c>
@@ -5140,7 +5143,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
         <v>116</v>
       </c>
@@ -5178,7 +5181,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
         <v>117</v>
       </c>
@@ -5216,7 +5219,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
         <v>118</v>
       </c>
@@ -5254,7 +5257,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
         <v>119</v>
       </c>
@@ -5292,7 +5295,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
         <v>120</v>
       </c>
@@ -5330,7 +5333,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
         <v>121</v>
       </c>
@@ -5368,7 +5371,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
         <v>122</v>
       </c>
@@ -5406,7 +5409,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
         <v>123</v>
       </c>
@@ -5444,7 +5447,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
         <v>124</v>
       </c>
@@ -5482,7 +5485,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
         <v>125</v>
       </c>
@@ -5520,7 +5523,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
         <v>126</v>
       </c>
@@ -5558,7 +5561,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
         <v>127</v>
       </c>
@@ -5596,7 +5599,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
         <v>128</v>
       </c>
@@ -5634,7 +5637,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
         <v>129</v>
       </c>
@@ -5672,7 +5675,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
         <v>130</v>
       </c>
@@ -5710,7 +5713,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
         <v>131</v>
       </c>
@@ -5748,7 +5751,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
         <v>132</v>
       </c>
@@ -5786,7 +5789,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
         <v>133</v>
       </c>
@@ -5824,7 +5827,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
         <v>134</v>
       </c>
@@ -5862,7 +5865,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
         <v>135</v>
       </c>
@@ -5900,7 +5903,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
         <v>136</v>
       </c>
@@ -5938,7 +5941,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
         <v>137</v>
       </c>
@@ -5976,7 +5979,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
         <v>138</v>
       </c>
@@ -6014,7 +6017,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
         <v>139</v>
       </c>
@@ -6052,7 +6055,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
         <v>140</v>
       </c>
@@ -6090,7 +6093,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
         <v>141</v>
       </c>
@@ -6128,7 +6131,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
         <v>142</v>
       </c>
@@ -6166,7 +6169,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
         <v>143</v>
       </c>
@@ -6204,7 +6207,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
         <v>144</v>
       </c>
@@ -6242,7 +6245,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
         <v>145</v>
       </c>
@@ -6280,7 +6283,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
         <v>146</v>
       </c>
@@ -6318,7 +6321,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
         <v>147</v>
       </c>
@@ -6356,7 +6359,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
         <v>148</v>
       </c>
@@ -6394,7 +6397,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
         <v>149</v>
       </c>
@@ -6432,7 +6435,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
         <v>150</v>
       </c>
@@ -6470,7 +6473,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
         <v>151</v>
       </c>
@@ -6508,7 +6511,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
         <v>152</v>
       </c>
@@ -6546,7 +6549,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="13" t="s">
         <v>153</v>
       </c>
@@ -6584,7 +6587,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="s">
         <v>154</v>
       </c>
@@ -6622,7 +6625,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="13" t="s">
         <v>155</v>
       </c>
@@ -6660,7 +6663,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="s">
         <v>156</v>
       </c>
@@ -6698,7 +6701,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
         <v>157</v>
       </c>
@@ -6736,7 +6739,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
         <v>158</v>
       </c>
@@ -6774,7 +6777,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
         <v>159</v>
       </c>
@@ -6812,7 +6815,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
         <v>160</v>
       </c>
@@ -6850,7 +6853,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="13" t="s">
         <v>161</v>
       </c>
@@ -6888,7 +6891,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="13" t="s">
         <v>162</v>
       </c>
@@ -6926,7 +6929,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
         <v>163</v>
       </c>
@@ -6964,7 +6967,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
         <v>164</v>
       </c>
@@ -7002,7 +7005,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="13" t="s">
         <v>165</v>
       </c>
@@ -7040,7 +7043,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="13" t="s">
         <v>166</v>
       </c>
@@ -7078,7 +7081,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="13" t="s">
         <v>167</v>
       </c>
@@ -7116,7 +7119,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="s">
         <v>168</v>
       </c>
@@ -7154,7 +7157,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="13" t="s">
         <v>169</v>
       </c>
@@ -7192,7 +7195,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="13" t="s">
         <v>170</v>
       </c>
@@ -7230,7 +7233,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
         <v>171</v>
       </c>
@@ -7268,7 +7271,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
         <v>172</v>
       </c>
@@ -7306,7 +7309,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="13" t="s">
         <v>173</v>
       </c>
@@ -7344,7 +7347,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="13" t="s">
         <v>174</v>
       </c>
@@ -7382,7 +7385,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="13" t="s">
         <v>175</v>
       </c>
@@ -7420,7 +7423,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="13" t="s">
         <v>176</v>
       </c>
@@ -7458,7 +7461,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="13" t="s">
         <v>177</v>
       </c>
@@ -7496,7 +7499,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="13" t="s">
         <v>178</v>
       </c>
@@ -7534,7 +7537,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="13" t="s">
         <v>179</v>
       </c>
@@ -7572,7 +7575,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="13" t="s">
         <v>180</v>
       </c>
@@ -7610,7 +7613,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="13" t="s">
         <v>181</v>
       </c>
@@ -7648,7 +7651,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="13" t="s">
         <v>182</v>
       </c>
@@ -7686,7 +7689,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="13" t="s">
         <v>183</v>
       </c>
@@ -7724,7 +7727,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="13" t="s">
         <v>184</v>
       </c>
@@ -7762,7 +7765,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="13" t="s">
         <v>185</v>
       </c>
@@ -7800,7 +7803,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="13" t="s">
         <v>186</v>
       </c>
@@ -7838,7 +7841,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="13" t="s">
         <v>187</v>
       </c>
@@ -7876,7 +7879,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="13" t="s">
         <v>188</v>
       </c>
@@ -7914,7 +7917,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="13" t="s">
         <v>189</v>
       </c>
@@ -7952,7 +7955,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="13" t="s">
         <v>190</v>
       </c>
@@ -7990,7 +7993,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="13" t="s">
         <v>191</v>
       </c>
@@ -8028,7 +8031,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="13" t="s">
         <v>192</v>
       </c>
@@ -8066,7 +8069,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="13" t="s">
         <v>193</v>
       </c>
@@ -8104,7 +8107,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="13" t="s">
         <v>194</v>
       </c>
@@ -8142,7 +8145,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="13" t="s">
         <v>195</v>
       </c>
@@ -8180,7 +8183,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="13" t="s">
         <v>196</v>
       </c>
@@ -8218,7 +8221,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="13" t="s">
         <v>197</v>
       </c>
@@ -8256,7 +8259,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="13" t="s">
         <v>198</v>
       </c>
@@ -8294,7 +8297,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="13" t="s">
         <v>199</v>
       </c>
@@ -8332,7 +8335,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="13" t="s">
         <v>200</v>
       </c>
@@ -8370,7 +8373,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="13" t="s">
         <v>201</v>
       </c>
@@ -8408,7 +8411,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="13" t="s">
         <v>202</v>
       </c>
@@ -8446,7 +8449,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="13" t="s">
         <v>203</v>
       </c>
@@ -8484,7 +8487,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="13" t="s">
         <v>204</v>
       </c>
@@ -8522,7 +8525,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="13" t="s">
         <v>205</v>
       </c>
@@ -8560,7 +8563,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="13" t="s">
         <v>206</v>
       </c>
@@ -8598,7 +8601,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="13" t="s">
         <v>207</v>
       </c>
@@ -8636,7 +8639,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="13" t="s">
         <v>208</v>
       </c>
@@ -8682,24 +8685,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G181"/>
+  <dimension ref="A1:H181"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD50"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.73046875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.1328125" style="4"/>
-    <col min="6" max="6" width="9.86328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.86328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.1328125" style="1"/>
+    <col min="3" max="3" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="4"/>
+    <col min="6" max="6" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -8721,8 +8725,11 @@
       <c r="G1" s="13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H1" s="13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>29</v>
       </c>
@@ -8744,8 +8751,11 @@
       <c r="G2" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>30</v>
       </c>
@@ -8767,8 +8777,11 @@
       <c r="G3" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H3" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>31</v>
       </c>
@@ -8790,8 +8803,11 @@
       <c r="G4" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>32</v>
       </c>
@@ -8813,8 +8829,11 @@
       <c r="G5" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>33</v>
       </c>
@@ -8836,8 +8855,11 @@
       <c r="G6" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H6" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>34</v>
       </c>
@@ -8859,8 +8881,11 @@
       <c r="G7" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H7" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>35</v>
       </c>
@@ -8882,8 +8907,11 @@
       <c r="G8" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H8" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>36</v>
       </c>
@@ -8905,8 +8933,11 @@
       <c r="G9" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>37</v>
       </c>
@@ -8928,8 +8959,11 @@
       <c r="G10" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>38</v>
       </c>
@@ -8951,8 +8985,11 @@
       <c r="G11" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H11" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>39</v>
       </c>
@@ -8974,8 +9011,11 @@
       <c r="G12" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H12" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>40</v>
       </c>
@@ -8997,8 +9037,11 @@
       <c r="G13" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H13" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>53</v>
       </c>
@@ -9020,8 +9063,11 @@
       <c r="G14" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H14" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>54</v>
       </c>
@@ -9043,8 +9089,11 @@
       <c r="G15" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H15" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>55</v>
       </c>
@@ -9066,8 +9115,11 @@
       <c r="G16" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H16" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>56</v>
       </c>
@@ -9089,8 +9141,11 @@
       <c r="G17" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>57</v>
       </c>
@@ -9112,8 +9167,11 @@
       <c r="G18" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H18" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>58</v>
       </c>
@@ -9135,8 +9193,11 @@
       <c r="G19" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H19" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>59</v>
       </c>
@@ -9158,8 +9219,11 @@
       <c r="G20" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H20" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>60</v>
       </c>
@@ -9181,8 +9245,11 @@
       <c r="G21" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H21" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>61</v>
       </c>
@@ -9204,8 +9271,11 @@
       <c r="G22" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H22" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>62</v>
       </c>
@@ -9227,8 +9297,11 @@
       <c r="G23" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H23" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>63</v>
       </c>
@@ -9250,8 +9323,11 @@
       <c r="G24" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H24" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>64</v>
       </c>
@@ -9273,8 +9349,11 @@
       <c r="G25" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H25" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>41</v>
       </c>
@@ -9296,8 +9375,11 @@
       <c r="G26" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H26" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>42</v>
       </c>
@@ -9319,8 +9401,11 @@
       <c r="G27" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H27" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>43</v>
       </c>
@@ -9342,8 +9427,11 @@
       <c r="G28" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H28" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>44</v>
       </c>
@@ -9365,8 +9453,11 @@
       <c r="G29" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H29" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>45</v>
       </c>
@@ -9388,8 +9479,11 @@
       <c r="G30" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H30" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>46</v>
       </c>
@@ -9411,8 +9505,11 @@
       <c r="G31" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H31" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>47</v>
       </c>
@@ -9434,8 +9531,11 @@
       <c r="G32" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H32" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>48</v>
       </c>
@@ -9457,8 +9557,11 @@
       <c r="G33" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H33" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>49</v>
       </c>
@@ -9480,8 +9583,11 @@
       <c r="G34" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H34" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>50</v>
       </c>
@@ -9503,8 +9609,11 @@
       <c r="G35" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H35" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>51</v>
       </c>
@@ -9526,8 +9635,11 @@
       <c r="G36" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H36" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>52</v>
       </c>
@@ -9549,8 +9661,11 @@
       <c r="G37" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H37" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>65</v>
       </c>
@@ -9572,8 +9687,11 @@
       <c r="G38" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H38" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>66</v>
       </c>
@@ -9595,8 +9713,11 @@
       <c r="G39" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H39" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>67</v>
       </c>
@@ -9618,8 +9739,11 @@
       <c r="G40" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H40" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>68</v>
       </c>
@@ -9641,8 +9765,11 @@
       <c r="G41" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H41" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>69</v>
       </c>
@@ -9664,8 +9791,11 @@
       <c r="G42" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H42" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>70</v>
       </c>
@@ -9687,8 +9817,11 @@
       <c r="G43" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H43" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>71</v>
       </c>
@@ -9710,8 +9843,11 @@
       <c r="G44" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H44" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>72</v>
       </c>
@@ -9733,8 +9869,11 @@
       <c r="G45" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H45" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>73</v>
       </c>
@@ -9756,8 +9895,11 @@
       <c r="G46" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H46" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>74</v>
       </c>
@@ -9779,8 +9921,11 @@
       <c r="G47" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H47" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>75</v>
       </c>
@@ -9802,8 +9947,11 @@
       <c r="G48" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H48" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>76</v>
       </c>
@@ -9825,8 +9973,11 @@
       <c r="G49" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H49" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>77</v>
       </c>
@@ -9848,8 +9999,11 @@
       <c r="G50" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H50" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>78</v>
       </c>
@@ -9871,8 +10025,11 @@
       <c r="G51" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H51" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>79</v>
       </c>
@@ -9894,8 +10051,11 @@
       <c r="G52" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H52" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>80</v>
       </c>
@@ -9917,8 +10077,11 @@
       <c r="G53" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H53" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>81</v>
       </c>
@@ -9940,8 +10103,11 @@
       <c r="G54" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H54" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>82</v>
       </c>
@@ -9963,8 +10129,11 @@
       <c r="G55" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H55" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>83</v>
       </c>
@@ -9986,8 +10155,11 @@
       <c r="G56" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H56" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>84</v>
       </c>
@@ -10009,8 +10181,11 @@
       <c r="G57" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H57" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>85</v>
       </c>
@@ -10032,8 +10207,11 @@
       <c r="G58" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H58" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>86</v>
       </c>
@@ -10055,8 +10233,11 @@
       <c r="G59" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H59" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>87</v>
       </c>
@@ -10078,8 +10259,11 @@
       <c r="G60" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H60" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>88</v>
       </c>
@@ -10101,8 +10285,11 @@
       <c r="G61" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H61" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>257</v>
       </c>
@@ -10124,8 +10311,11 @@
       <c r="G62" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H62" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>258</v>
       </c>
@@ -10147,8 +10337,11 @@
       <c r="G63" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H63" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>259</v>
       </c>
@@ -10170,8 +10363,11 @@
       <c r="G64" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H64" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>260</v>
       </c>
@@ -10193,8 +10389,11 @@
       <c r="G65" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H65" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>261</v>
       </c>
@@ -10216,8 +10415,11 @@
       <c r="G66" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H66" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>262</v>
       </c>
@@ -10239,8 +10441,11 @@
       <c r="G67" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H67" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>263</v>
       </c>
@@ -10262,8 +10467,11 @@
       <c r="G68" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H68" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>264</v>
       </c>
@@ -10285,8 +10493,11 @@
       <c r="G69" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H69" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>265</v>
       </c>
@@ -10308,8 +10519,11 @@
       <c r="G70" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H70" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>266</v>
       </c>
@@ -10331,8 +10545,11 @@
       <c r="G71" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H71" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>267</v>
       </c>
@@ -10354,8 +10571,11 @@
       <c r="G72" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H72" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>268</v>
       </c>
@@ -10377,8 +10597,11 @@
       <c r="G73" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H73" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>101</v>
       </c>
@@ -10400,8 +10623,11 @@
       <c r="G74" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H74" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
         <v>102</v>
       </c>
@@ -10423,8 +10649,11 @@
       <c r="G75" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H75" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>103</v>
       </c>
@@ -10446,8 +10675,11 @@
       <c r="G76" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H76" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
         <v>104</v>
       </c>
@@ -10469,8 +10701,11 @@
       <c r="G77" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H77" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
         <v>105</v>
       </c>
@@ -10492,8 +10727,11 @@
       <c r="G78" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H78" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
         <v>106</v>
       </c>
@@ -10515,8 +10753,11 @@
       <c r="G79" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H79" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
         <v>107</v>
       </c>
@@ -10538,8 +10779,11 @@
       <c r="G80" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H80" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
         <v>108</v>
       </c>
@@ -10561,8 +10805,11 @@
       <c r="G81" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H81" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
         <v>109</v>
       </c>
@@ -10584,8 +10831,11 @@
       <c r="G82" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H82" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
         <v>110</v>
       </c>
@@ -10607,8 +10857,11 @@
       <c r="G83" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H83" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
         <v>111</v>
       </c>
@@ -10630,8 +10883,11 @@
       <c r="G84" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H84" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
         <v>112</v>
       </c>
@@ -10653,8 +10909,11 @@
       <c r="G85" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H85" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
         <v>113</v>
       </c>
@@ -10676,8 +10935,11 @@
       <c r="G86" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H86" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
         <v>114</v>
       </c>
@@ -10699,8 +10961,11 @@
       <c r="G87" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H87" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
         <v>115</v>
       </c>
@@ -10722,8 +10987,11 @@
       <c r="G88" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H88" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
         <v>116</v>
       </c>
@@ -10745,8 +11013,11 @@
       <c r="G89" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H89" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
         <v>117</v>
       </c>
@@ -10768,8 +11039,11 @@
       <c r="G90" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H90" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
         <v>118</v>
       </c>
@@ -10791,8 +11065,11 @@
       <c r="G91" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H91" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
         <v>119</v>
       </c>
@@ -10814,8 +11091,11 @@
       <c r="G92" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H92" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
         <v>120</v>
       </c>
@@ -10837,8 +11117,11 @@
       <c r="G93" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H93" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
         <v>121</v>
       </c>
@@ -10860,8 +11143,11 @@
       <c r="G94" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H94" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
         <v>122</v>
       </c>
@@ -10883,8 +11169,11 @@
       <c r="G95" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H95" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
         <v>123</v>
       </c>
@@ -10906,8 +11195,11 @@
       <c r="G96" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H96" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
         <v>124</v>
       </c>
@@ -10929,8 +11221,11 @@
       <c r="G97" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H97" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
         <v>125</v>
       </c>
@@ -10952,8 +11247,11 @@
       <c r="G98" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H98" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
         <v>126</v>
       </c>
@@ -10975,8 +11273,11 @@
       <c r="G99" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H99" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
         <v>127</v>
       </c>
@@ -10998,8 +11299,11 @@
       <c r="G100" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H100" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
         <v>128</v>
       </c>
@@ -11021,8 +11325,11 @@
       <c r="G101" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H101" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
         <v>129</v>
       </c>
@@ -11044,8 +11351,11 @@
       <c r="G102" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H102" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
         <v>130</v>
       </c>
@@ -11067,8 +11377,11 @@
       <c r="G103" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H103" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
         <v>131</v>
       </c>
@@ -11090,8 +11403,11 @@
       <c r="G104" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H104" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
         <v>132</v>
       </c>
@@ -11113,8 +11429,11 @@
       <c r="G105" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H105" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
         <v>133</v>
       </c>
@@ -11136,8 +11455,11 @@
       <c r="G106" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H106" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
         <v>134</v>
       </c>
@@ -11159,8 +11481,11 @@
       <c r="G107" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H107" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
         <v>135</v>
       </c>
@@ -11182,8 +11507,11 @@
       <c r="G108" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H108" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
         <v>136</v>
       </c>
@@ -11205,8 +11533,11 @@
       <c r="G109" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H109" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
         <v>137</v>
       </c>
@@ -11228,8 +11559,11 @@
       <c r="G110" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H110" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
         <v>138</v>
       </c>
@@ -11251,8 +11585,11 @@
       <c r="G111" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H111" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
         <v>139</v>
       </c>
@@ -11274,8 +11611,11 @@
       <c r="G112" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H112" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
         <v>140</v>
       </c>
@@ -11297,8 +11637,11 @@
       <c r="G113" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H113" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
         <v>141</v>
       </c>
@@ -11320,8 +11663,11 @@
       <c r="G114" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H114" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
         <v>142</v>
       </c>
@@ -11343,8 +11689,11 @@
       <c r="G115" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H115" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
         <v>143</v>
       </c>
@@ -11366,8 +11715,11 @@
       <c r="G116" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H116" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
         <v>144</v>
       </c>
@@ -11389,8 +11741,11 @@
       <c r="G117" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H117" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
         <v>145</v>
       </c>
@@ -11412,8 +11767,11 @@
       <c r="G118" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H118" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
         <v>146</v>
       </c>
@@ -11435,8 +11793,11 @@
       <c r="G119" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H119" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
         <v>147</v>
       </c>
@@ -11458,8 +11819,11 @@
       <c r="G120" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H120" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
         <v>148</v>
       </c>
@@ -11481,8 +11845,11 @@
       <c r="G121" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H121" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
         <v>149</v>
       </c>
@@ -11504,8 +11871,11 @@
       <c r="G122" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H122" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
         <v>150</v>
       </c>
@@ -11527,8 +11897,11 @@
       <c r="G123" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H123" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
         <v>151</v>
       </c>
@@ -11550,8 +11923,11 @@
       <c r="G124" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H124" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
         <v>152</v>
       </c>
@@ -11573,8 +11949,11 @@
       <c r="G125" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H125" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="13" t="s">
         <v>153</v>
       </c>
@@ -11596,8 +11975,11 @@
       <c r="G126" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H126" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="s">
         <v>154</v>
       </c>
@@ -11619,8 +12001,11 @@
       <c r="G127" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H127" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="13" t="s">
         <v>155</v>
       </c>
@@ -11642,8 +12027,11 @@
       <c r="G128" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H128" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="s">
         <v>156</v>
       </c>
@@ -11665,8 +12053,11 @@
       <c r="G129" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H129" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
         <v>157</v>
       </c>
@@ -11688,8 +12079,11 @@
       <c r="G130" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H130" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
         <v>158</v>
       </c>
@@ -11711,8 +12105,11 @@
       <c r="G131" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H131" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
         <v>159</v>
       </c>
@@ -11734,8 +12131,11 @@
       <c r="G132" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H132" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
         <v>160</v>
       </c>
@@ -11757,8 +12157,11 @@
       <c r="G133" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H133" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="13" t="s">
         <v>161</v>
       </c>
@@ -11780,8 +12183,11 @@
       <c r="G134" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H134" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="13" t="s">
         <v>162</v>
       </c>
@@ -11803,8 +12209,11 @@
       <c r="G135" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H135" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
         <v>163</v>
       </c>
@@ -11826,8 +12235,11 @@
       <c r="G136" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H136" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
         <v>164</v>
       </c>
@@ -11849,8 +12261,11 @@
       <c r="G137" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H137" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="13" t="s">
         <v>165</v>
       </c>
@@ -11872,8 +12287,11 @@
       <c r="G138" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H138" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="13" t="s">
         <v>166</v>
       </c>
@@ -11895,8 +12313,11 @@
       <c r="G139" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H139" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="13" t="s">
         <v>167</v>
       </c>
@@ -11918,8 +12339,11 @@
       <c r="G140" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H140" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="s">
         <v>168</v>
       </c>
@@ -11941,8 +12365,11 @@
       <c r="G141" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H141" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="13" t="s">
         <v>169</v>
       </c>
@@ -11964,8 +12391,11 @@
       <c r="G142" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H142" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="13" t="s">
         <v>170</v>
       </c>
@@ -11987,8 +12417,11 @@
       <c r="G143" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H143" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
         <v>171</v>
       </c>
@@ -12010,8 +12443,11 @@
       <c r="G144" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H144" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
         <v>172</v>
       </c>
@@ -12033,8 +12469,11 @@
       <c r="G145" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H145" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="13" t="s">
         <v>173</v>
       </c>
@@ -12056,8 +12495,11 @@
       <c r="G146" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H146" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="13" t="s">
         <v>174</v>
       </c>
@@ -12079,8 +12521,11 @@
       <c r="G147" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H147" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="13" t="s">
         <v>175</v>
       </c>
@@ -12102,8 +12547,11 @@
       <c r="G148" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H148" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="13" t="s">
         <v>176</v>
       </c>
@@ -12125,8 +12573,11 @@
       <c r="G149" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H149" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="13" t="s">
         <v>177</v>
       </c>
@@ -12148,8 +12599,11 @@
       <c r="G150" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H150" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="13" t="s">
         <v>178</v>
       </c>
@@ -12171,8 +12625,11 @@
       <c r="G151" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H151" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="13" t="s">
         <v>179</v>
       </c>
@@ -12194,8 +12651,11 @@
       <c r="G152" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H152" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="13" t="s">
         <v>180</v>
       </c>
@@ -12217,8 +12677,11 @@
       <c r="G153" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H153" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="13" t="s">
         <v>181</v>
       </c>
@@ -12240,8 +12703,11 @@
       <c r="G154" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H154" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="13" t="s">
         <v>182</v>
       </c>
@@ -12263,8 +12729,11 @@
       <c r="G155" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H155" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="13" t="s">
         <v>183</v>
       </c>
@@ -12286,8 +12755,11 @@
       <c r="G156" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H156" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="13" t="s">
         <v>184</v>
       </c>
@@ -12309,8 +12781,11 @@
       <c r="G157" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H157" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="13" t="s">
         <v>185</v>
       </c>
@@ -12332,8 +12807,11 @@
       <c r="G158" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H158" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="13" t="s">
         <v>186</v>
       </c>
@@ -12355,8 +12833,11 @@
       <c r="G159" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H159" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="13" t="s">
         <v>187</v>
       </c>
@@ -12378,8 +12859,11 @@
       <c r="G160" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H160" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="13" t="s">
         <v>188</v>
       </c>
@@ -12401,8 +12885,11 @@
       <c r="G161" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H161" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="13" t="s">
         <v>189</v>
       </c>
@@ -12424,8 +12911,11 @@
       <c r="G162" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H162" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="13" t="s">
         <v>190</v>
       </c>
@@ -12447,8 +12937,11 @@
       <c r="G163" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H163" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="13" t="s">
         <v>191</v>
       </c>
@@ -12470,8 +12963,11 @@
       <c r="G164" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H164" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="13" t="s">
         <v>192</v>
       </c>
@@ -12493,8 +12989,11 @@
       <c r="G165" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H165" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="13" t="s">
         <v>193</v>
       </c>
@@ -12516,8 +13015,11 @@
       <c r="G166" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H166" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="13" t="s">
         <v>194</v>
       </c>
@@ -12539,8 +13041,11 @@
       <c r="G167" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H167" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="13" t="s">
         <v>195</v>
       </c>
@@ -12562,8 +13067,11 @@
       <c r="G168" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H168" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="13" t="s">
         <v>196</v>
       </c>
@@ -12585,8 +13093,11 @@
       <c r="G169" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H169" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="13" t="s">
         <v>197</v>
       </c>
@@ -12608,8 +13119,11 @@
       <c r="G170" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H170" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="13" t="s">
         <v>198</v>
       </c>
@@ -12631,8 +13145,11 @@
       <c r="G171" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H171" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="13" t="s">
         <v>199</v>
       </c>
@@ -12654,8 +13171,11 @@
       <c r="G172" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H172" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="13" t="s">
         <v>200</v>
       </c>
@@ -12677,8 +13197,11 @@
       <c r="G173" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H173" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="13" t="s">
         <v>201</v>
       </c>
@@ -12700,8 +13223,11 @@
       <c r="G174" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H174" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="13" t="s">
         <v>202</v>
       </c>
@@ -12723,8 +13249,11 @@
       <c r="G175" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H175" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="13" t="s">
         <v>203</v>
       </c>
@@ -12746,8 +13275,11 @@
       <c r="G176" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H176" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="13" t="s">
         <v>204</v>
       </c>
@@ -12769,8 +13301,11 @@
       <c r="G177" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H177" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="13" t="s">
         <v>205</v>
       </c>
@@ -12792,8 +13327,11 @@
       <c r="G178" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H178" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="13" t="s">
         <v>206</v>
       </c>
@@ -12815,8 +13353,11 @@
       <c r="G179" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H179" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="13" t="s">
         <v>207</v>
       </c>
@@ -12838,8 +13379,11 @@
       <c r="G180" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H180" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="13" t="s">
         <v>208</v>
       </c>
@@ -12860,6 +13404,9 @@
       </c>
       <c r="G181" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="H181" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -12876,22 +13423,22 @@
       <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.73046875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1328125" style="4"/>
-    <col min="7" max="7" width="9.1328125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="8.265625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.73046875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="8.265625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="8.86328125" customWidth="1"/>
-    <col min="12" max="16384" width="9.1328125" style="1"/>
+    <col min="6" max="6" width="9.140625" style="4"/>
+    <col min="7" max="7" width="9.140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -12923,7 +13470,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>29</v>
       </c>
@@ -12955,7 +13502,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>30</v>
       </c>
@@ -12987,7 +13534,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>31</v>
       </c>
@@ -13019,7 +13566,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>32</v>
       </c>
@@ -13051,7 +13598,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>33</v>
       </c>
@@ -13083,7 +13630,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>34</v>
       </c>
@@ -13115,7 +13662,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>35</v>
       </c>
@@ -13147,7 +13694,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>36</v>
       </c>
@@ -13179,7 +13726,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>37</v>
       </c>
@@ -13211,7 +13758,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>38</v>
       </c>
@@ -13243,7 +13790,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>39</v>
       </c>
@@ -13275,7 +13822,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>40</v>
       </c>
@@ -13307,7 +13854,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>53</v>
       </c>
@@ -13339,7 +13886,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>54</v>
       </c>
@@ -13371,7 +13918,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>55</v>
       </c>
@@ -13403,7 +13950,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>56</v>
       </c>
@@ -13435,7 +13982,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>57</v>
       </c>
@@ -13467,7 +14014,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>58</v>
       </c>
@@ -13499,7 +14046,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>59</v>
       </c>
@@ -13531,7 +14078,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>60</v>
       </c>
@@ -13563,7 +14110,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>61</v>
       </c>
@@ -13595,7 +14142,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>62</v>
       </c>
@@ -13627,7 +14174,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>63</v>
       </c>
@@ -13659,7 +14206,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>64</v>
       </c>
@@ -13691,7 +14238,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>41</v>
       </c>
@@ -13723,7 +14270,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>42</v>
       </c>
@@ -13755,7 +14302,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>43</v>
       </c>
@@ -13787,7 +14334,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>44</v>
       </c>
@@ -13819,7 +14366,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>45</v>
       </c>
@@ -13851,7 +14398,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>46</v>
       </c>
@@ -13883,7 +14430,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>47</v>
       </c>
@@ -13915,7 +14462,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>48</v>
       </c>
@@ -13947,7 +14494,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>49</v>
       </c>
@@ -13979,7 +14526,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>50</v>
       </c>
@@ -14011,7 +14558,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>51</v>
       </c>
@@ -14043,7 +14590,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>52</v>
       </c>
@@ -14075,7 +14622,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>65</v>
       </c>
@@ -14107,7 +14654,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>66</v>
       </c>
@@ -14139,7 +14686,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>67</v>
       </c>
@@ -14171,7 +14718,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>68</v>
       </c>
@@ -14203,7 +14750,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>69</v>
       </c>
@@ -14235,7 +14782,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>70</v>
       </c>
@@ -14267,7 +14814,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>71</v>
       </c>
@@ -14299,7 +14846,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>72</v>
       </c>
@@ -14331,7 +14878,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>73</v>
       </c>
@@ -14363,7 +14910,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>74</v>
       </c>
@@ -14395,7 +14942,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>75</v>
       </c>
@@ -14427,7 +14974,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>76</v>
       </c>
@@ -14459,7 +15006,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>77</v>
       </c>
@@ -14491,7 +15038,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>78</v>
       </c>
@@ -14523,7 +15070,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>79</v>
       </c>
@@ -14555,7 +15102,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>80</v>
       </c>
@@ -14587,7 +15134,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>81</v>
       </c>
@@ -14619,7 +15166,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>82</v>
       </c>
@@ -14651,7 +15198,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>83</v>
       </c>
@@ -14683,7 +15230,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>84</v>
       </c>
@@ -14715,7 +15262,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>85</v>
       </c>
@@ -14747,7 +15294,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>86</v>
       </c>
@@ -14779,7 +15326,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>87</v>
       </c>
@@ -14811,7 +15358,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>88</v>
       </c>
@@ -14843,7 +15390,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>245</v>
       </c>
@@ -14875,7 +15422,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>246</v>
       </c>
@@ -14907,7 +15454,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>247</v>
       </c>
@@ -14939,7 +15486,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>248</v>
       </c>
@@ -14971,7 +15518,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>249</v>
       </c>
@@ -15003,7 +15550,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>250</v>
       </c>
@@ -15035,7 +15582,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>251</v>
       </c>
@@ -15067,7 +15614,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>252</v>
       </c>
@@ -15099,7 +15646,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>253</v>
       </c>
@@ -15131,7 +15678,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>254</v>
       </c>
@@ -15163,7 +15710,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>255</v>
       </c>
@@ -15195,7 +15742,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>256</v>
       </c>
@@ -15227,7 +15774,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>101</v>
       </c>
@@ -15259,7 +15806,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
         <v>102</v>
       </c>
@@ -15291,7 +15838,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>103</v>
       </c>
@@ -15323,7 +15870,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
         <v>104</v>
       </c>
@@ -15355,7 +15902,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
         <v>105</v>
       </c>
@@ -15387,7 +15934,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
         <v>106</v>
       </c>
@@ -15419,7 +15966,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
         <v>107</v>
       </c>
@@ -15451,7 +15998,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
         <v>108</v>
       </c>
@@ -15483,7 +16030,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
         <v>109</v>
       </c>
@@ -15515,7 +16062,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
         <v>110</v>
       </c>
@@ -15547,7 +16094,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
         <v>111</v>
       </c>
@@ -15579,7 +16126,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
         <v>112</v>
       </c>
@@ -15611,7 +16158,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
         <v>113</v>
       </c>
@@ -15643,7 +16190,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
         <v>114</v>
       </c>
@@ -15675,7 +16222,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
         <v>115</v>
       </c>
@@ -15707,7 +16254,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
         <v>116</v>
       </c>
@@ -15739,7 +16286,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
         <v>117</v>
       </c>
@@ -15771,7 +16318,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
         <v>118</v>
       </c>
@@ -15803,7 +16350,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
         <v>119</v>
       </c>
@@ -15835,7 +16382,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
         <v>120</v>
       </c>
@@ -15867,7 +16414,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
         <v>121</v>
       </c>
@@ -15899,7 +16446,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
         <v>122</v>
       </c>
@@ -15931,7 +16478,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
         <v>123</v>
       </c>
@@ -15963,7 +16510,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
         <v>124</v>
       </c>
@@ -15995,7 +16542,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
         <v>125</v>
       </c>
@@ -16027,7 +16574,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
         <v>126</v>
       </c>
@@ -16059,7 +16606,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
         <v>127</v>
       </c>
@@ -16091,7 +16638,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
         <v>128</v>
       </c>
@@ -16123,7 +16670,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
         <v>129</v>
       </c>
@@ -16155,7 +16702,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
         <v>130</v>
       </c>
@@ -16187,7 +16734,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
         <v>131</v>
       </c>
@@ -16219,7 +16766,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
         <v>132</v>
       </c>
@@ -16251,7 +16798,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
         <v>133</v>
       </c>
@@ -16283,7 +16830,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
         <v>134</v>
       </c>
@@ -16315,7 +16862,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
         <v>135</v>
       </c>
@@ -16347,7 +16894,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
         <v>136</v>
       </c>
@@ -16379,7 +16926,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
         <v>137</v>
       </c>
@@ -16411,7 +16958,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
         <v>138</v>
       </c>
@@ -16443,7 +16990,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
         <v>139</v>
       </c>
@@ -16475,7 +17022,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
         <v>140</v>
       </c>
@@ -16507,7 +17054,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
         <v>141</v>
       </c>
@@ -16539,7 +17086,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
         <v>142</v>
       </c>
@@ -16571,7 +17118,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
         <v>143</v>
       </c>
@@ -16603,7 +17150,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
         <v>144</v>
       </c>
@@ -16635,7 +17182,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
         <v>145</v>
       </c>
@@ -16667,7 +17214,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
         <v>146</v>
       </c>
@@ -16699,7 +17246,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
         <v>147</v>
       </c>
@@ -16731,7 +17278,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
         <v>148</v>
       </c>
@@ -16763,7 +17310,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
         <v>149</v>
       </c>
@@ -16795,7 +17342,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
         <v>150</v>
       </c>
@@ -16827,7 +17374,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
         <v>151</v>
       </c>
@@ -16859,7 +17406,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
         <v>152</v>
       </c>
@@ -16891,7 +17438,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="13" t="s">
         <v>153</v>
       </c>
@@ -16923,7 +17470,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="s">
         <v>154</v>
       </c>
@@ -16955,7 +17502,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="13" t="s">
         <v>155</v>
       </c>
@@ -16987,7 +17534,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="s">
         <v>156</v>
       </c>
@@ -17019,7 +17566,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
         <v>157</v>
       </c>
@@ -17051,7 +17598,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
         <v>158</v>
       </c>
@@ -17083,7 +17630,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
         <v>159</v>
       </c>
@@ -17115,7 +17662,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
         <v>160</v>
       </c>
@@ -17147,7 +17694,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="13" t="s">
         <v>161</v>
       </c>
@@ -17179,7 +17726,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="13" t="s">
         <v>162</v>
       </c>
@@ -17211,7 +17758,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
         <v>163</v>
       </c>
@@ -17243,7 +17790,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
         <v>164</v>
       </c>
@@ -17275,7 +17822,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="13" t="s">
         <v>165</v>
       </c>
@@ -17307,7 +17854,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="13" t="s">
         <v>166</v>
       </c>
@@ -17339,7 +17886,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="13" t="s">
         <v>167</v>
       </c>
@@ -17371,7 +17918,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="s">
         <v>168</v>
       </c>
@@ -17403,7 +17950,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="13" t="s">
         <v>169</v>
       </c>
@@ -17435,7 +17982,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="13" t="s">
         <v>170</v>
       </c>
@@ -17467,7 +18014,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
         <v>171</v>
       </c>
@@ -17499,7 +18046,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
         <v>172</v>
       </c>
@@ -17531,7 +18078,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="13" t="s">
         <v>173</v>
       </c>
@@ -17563,7 +18110,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="13" t="s">
         <v>174</v>
       </c>
@@ -17595,7 +18142,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="13" t="s">
         <v>175</v>
       </c>
@@ -17627,7 +18174,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="13" t="s">
         <v>176</v>
       </c>
@@ -17659,7 +18206,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="13" t="s">
         <v>177</v>
       </c>
@@ -17691,7 +18238,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="13" t="s">
         <v>178</v>
       </c>
@@ -17723,7 +18270,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="13" t="s">
         <v>179</v>
       </c>
@@ -17755,7 +18302,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="13" t="s">
         <v>180</v>
       </c>
@@ -17787,7 +18334,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="13" t="s">
         <v>181</v>
       </c>
@@ -17819,7 +18366,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="13" t="s">
         <v>182</v>
       </c>
@@ -17851,7 +18398,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="13" t="s">
         <v>183</v>
       </c>
@@ -17883,7 +18430,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="13" t="s">
         <v>184</v>
       </c>
@@ -17915,7 +18462,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="13" t="s">
         <v>185</v>
       </c>
@@ -17947,7 +18494,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="13" t="s">
         <v>186</v>
       </c>
@@ -17979,7 +18526,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="13" t="s">
         <v>187</v>
       </c>
@@ -18011,7 +18558,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="13" t="s">
         <v>188</v>
       </c>
@@ -18043,7 +18590,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="13" t="s">
         <v>189</v>
       </c>
@@ -18075,7 +18622,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="13" t="s">
         <v>190</v>
       </c>
@@ -18107,7 +18654,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="13" t="s">
         <v>191</v>
       </c>
@@ -18139,7 +18686,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="13" t="s">
         <v>192</v>
       </c>
@@ -18171,7 +18718,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="13" t="s">
         <v>193</v>
       </c>
@@ -18203,7 +18750,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="13" t="s">
         <v>194</v>
       </c>
@@ -18235,7 +18782,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="13" t="s">
         <v>195</v>
       </c>
@@ -18267,7 +18814,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="13" t="s">
         <v>196</v>
       </c>
@@ -18299,7 +18846,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="13" t="s">
         <v>197</v>
       </c>
@@ -18331,7 +18878,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="13" t="s">
         <v>198</v>
       </c>
@@ -18363,7 +18910,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="13" t="s">
         <v>199</v>
       </c>
@@ -18395,7 +18942,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="13" t="s">
         <v>200</v>
       </c>
@@ -18427,7 +18974,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="13" t="s">
         <v>201</v>
       </c>
@@ -18459,7 +19006,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="13" t="s">
         <v>202</v>
       </c>
@@ -18491,7 +19038,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="13" t="s">
         <v>203</v>
       </c>
@@ -18523,7 +19070,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="13" t="s">
         <v>204</v>
       </c>
@@ -18555,7 +19102,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="13" t="s">
         <v>205</v>
       </c>
@@ -18587,7 +19134,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="13" t="s">
         <v>206</v>
       </c>
@@ -18619,7 +19166,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="13" t="s">
         <v>207</v>
       </c>
@@ -18651,7 +19198,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="13" t="s">
         <v>208</v>
       </c>
@@ -18696,18 +19243,18 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.86328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.86328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.73046875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1328125" style="1"/>
+    <col min="6" max="6" width="9.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -18727,7 +19274,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>230</v>
       </c>
@@ -18747,7 +19294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>231</v>
       </c>
@@ -18767,7 +19314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>232</v>
       </c>
@@ -18787,7 +19334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>233</v>
       </c>
@@ -18807,7 +19354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>234</v>
       </c>
@@ -18827,7 +19374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>244</v>
       </c>
@@ -18847,7 +19394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>235</v>
       </c>
@@ -18868,7 +19415,7 @@
         <v>25.15</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>236</v>
       </c>
@@ -18888,7 +19435,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>237</v>
       </c>
@@ -18908,7 +19455,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>238</v>
       </c>
@@ -18928,7 +19475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>239</v>
       </c>
@@ -18948,7 +19495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>240</v>
       </c>
@@ -18968,7 +19515,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>241</v>
       </c>
@@ -18988,7 +19535,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>242</v>
       </c>
@@ -19008,7 +19555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>243</v>
       </c>
@@ -19042,22 +19589,22 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.3984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1328125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.73046875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1328125" style="1"/>
+    <col min="1" max="1" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -19089,7 +19636,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>230</v>
       </c>
@@ -19121,7 +19668,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>231</v>
       </c>
@@ -19155,7 +19702,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>232</v>
       </c>
@@ -19187,7 +19734,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>233</v>
       </c>
@@ -19219,7 +19766,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>234</v>
       </c>
@@ -19251,7 +19798,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>244</v>
       </c>
@@ -19283,7 +19830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>235</v>
       </c>
@@ -19315,7 +19862,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>236</v>
       </c>
@@ -19347,7 +19894,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>237</v>
       </c>
@@ -19379,7 +19926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>238</v>
       </c>
@@ -19411,7 +19958,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>239</v>
       </c>
@@ -19443,7 +19990,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>240</v>
       </c>
@@ -19475,7 +20022,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>241</v>
       </c>
@@ -19507,7 +20054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>242</v>
       </c>
@@ -19539,7 +20086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>243</v>
       </c>
@@ -19588,24 +20135,24 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.73046875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.86328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.59765625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.1328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.59765625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.3984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.3984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -19646,7 +20193,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
@@ -19687,7 +20234,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
@@ -19728,7 +20275,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
@@ -19769,7 +20316,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -19810,7 +20357,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -19851,7 +20398,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
@@ -19892,7 +20439,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
@@ -19933,7 +20480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
@@ -19974,7 +20521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>37</v>
       </c>
@@ -20015,7 +20562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
@@ -20056,7 +20603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
@@ -20097,7 +20644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>40</v>
       </c>
@@ -20138,7 +20685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>53</v>
       </c>
@@ -20179,7 +20726,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>54</v>
       </c>
@@ -20220,7 +20767,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>55</v>
       </c>
@@ -20261,7 +20808,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>56</v>
       </c>
@@ -20302,7 +20849,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>57</v>
       </c>
@@ -20343,7 +20890,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>58</v>
       </c>
@@ -20384,7 +20931,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>59</v>
       </c>
@@ -20425,7 +20972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>60</v>
       </c>
@@ -20466,7 +21013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>61</v>
       </c>
@@ -20507,7 +21054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>62</v>
       </c>
@@ -20548,7 +21095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>63</v>
       </c>
@@ -20589,7 +21136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>64</v>
       </c>
@@ -20630,7 +21177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>41</v>
       </c>
@@ -20671,7 +21218,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>42</v>
       </c>
@@ -20712,7 +21259,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>43</v>
       </c>
@@ -20753,7 +21300,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>44</v>
       </c>
@@ -20794,7 +21341,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>45</v>
       </c>
@@ -20835,7 +21382,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>46</v>
       </c>
@@ -20876,7 +21423,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>47</v>
       </c>
@@ -20917,7 +21464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>48</v>
       </c>
@@ -20958,7 +21505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>49</v>
       </c>
@@ -20999,7 +21546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>50</v>
       </c>
@@ -21040,7 +21587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>51</v>
       </c>
@@ -21081,7 +21628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>52</v>
       </c>
@@ -21122,7 +21669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>65</v>
       </c>
@@ -21163,7 +21710,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>66</v>
       </c>
@@ -21204,7 +21751,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>67</v>
       </c>
@@ -21245,7 +21792,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>68</v>
       </c>
@@ -21286,7 +21833,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>69</v>
       </c>
@@ -21327,7 +21874,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>70</v>
       </c>
@@ -21368,7 +21915,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>71</v>
       </c>
@@ -21409,7 +21956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>72</v>
       </c>
@@ -21450,7 +21997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>73</v>
       </c>
@@ -21491,7 +22038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>74</v>
       </c>
@@ -21532,7 +22079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>75</v>
       </c>
@@ -21573,7 +22120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>76</v>
       </c>
@@ -21614,7 +22161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>77</v>
       </c>
@@ -21655,7 +22202,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>78</v>
       </c>
@@ -21696,7 +22243,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>79</v>
       </c>
@@ -21737,7 +22284,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>80</v>
       </c>
@@ -21778,7 +22325,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>81</v>
       </c>
@@ -21819,7 +22366,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>82</v>
       </c>
@@ -21860,7 +22407,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>83</v>
       </c>
@@ -21901,7 +22448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>84</v>
       </c>
@@ -21942,7 +22489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>85</v>
       </c>
@@ -21983,7 +22530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>86</v>
       </c>
@@ -22024,7 +22571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>87</v>
       </c>
@@ -22065,7 +22612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>88</v>
       </c>
@@ -22106,7 +22653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>89</v>
       </c>
@@ -22147,7 +22694,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>90</v>
       </c>
@@ -22188,7 +22735,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>91</v>
       </c>
@@ -22229,7 +22776,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>92</v>
       </c>
@@ -22270,7 +22817,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>93</v>
       </c>
@@ -22311,7 +22858,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>94</v>
       </c>
@@ -22352,7 +22899,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>95</v>
       </c>
@@ -22393,7 +22940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>96</v>
       </c>
@@ -22434,7 +22981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>97</v>
       </c>
@@ -22475,7 +23022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>98</v>
       </c>
@@ -22516,7 +23063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>99</v>
       </c>
@@ -22557,7 +23104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>100</v>
       </c>
@@ -22598,7 +23145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>101</v>
       </c>
@@ -22639,7 +23186,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>102</v>
       </c>
@@ -22680,7 +23227,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>103</v>
       </c>
@@ -22721,7 +23268,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>104</v>
       </c>
@@ -22762,7 +23309,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>105</v>
       </c>
@@ -22803,7 +23350,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>106</v>
       </c>
@@ -22844,7 +23391,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>107</v>
       </c>
@@ -22885,7 +23432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>108</v>
       </c>
@@ -22926,7 +23473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>109</v>
       </c>
@@ -22967,7 +23514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>110</v>
       </c>
@@ -23008,7 +23555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>111</v>
       </c>
@@ -23049,7 +23596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>112</v>
       </c>
@@ -23090,7 +23637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>113</v>
       </c>
@@ -23131,7 +23678,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>114</v>
       </c>
@@ -23172,7 +23719,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>115</v>
       </c>
@@ -23213,7 +23760,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>116</v>
       </c>
@@ -23254,7 +23801,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>117</v>
       </c>
@@ -23295,7 +23842,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>118</v>
       </c>
@@ -23336,7 +23883,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>119</v>
       </c>
@@ -23377,7 +23924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>120</v>
       </c>
@@ -23418,7 +23965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>121</v>
       </c>
@@ -23459,7 +24006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>122</v>
       </c>
@@ -23500,7 +24047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>123</v>
       </c>
@@ -23541,7 +24088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>124</v>
       </c>
@@ -23582,7 +24129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>125</v>
       </c>
@@ -23623,7 +24170,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>126</v>
       </c>
@@ -23664,7 +24211,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>127</v>
       </c>
@@ -23705,7 +24252,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>128</v>
       </c>
@@ -23746,7 +24293,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>129</v>
       </c>
@@ -23787,7 +24334,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>130</v>
       </c>
@@ -23828,7 +24375,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>131</v>
       </c>
@@ -23869,7 +24416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>132</v>
       </c>
@@ -23910,7 +24457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>133</v>
       </c>
@@ -23951,7 +24498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>134</v>
       </c>
@@ -23992,7 +24539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>135</v>
       </c>
@@ -24033,7 +24580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>136</v>
       </c>
@@ -24074,7 +24621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>137</v>
       </c>
@@ -24115,7 +24662,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>138</v>
       </c>
@@ -24156,7 +24703,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>139</v>
       </c>
@@ -24197,7 +24744,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>140</v>
       </c>
@@ -24238,7 +24785,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>141</v>
       </c>
@@ -24279,7 +24826,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>142</v>
       </c>
@@ -24320,7 +24867,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>143</v>
       </c>
@@ -24361,7 +24908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>144</v>
       </c>
@@ -24402,7 +24949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>145</v>
       </c>
@@ -24443,7 +24990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>146</v>
       </c>
@@ -24484,7 +25031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>147</v>
       </c>
@@ -24525,7 +25072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>148</v>
       </c>
@@ -24566,7 +25113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>149</v>
       </c>
@@ -24607,7 +25154,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>150</v>
       </c>
@@ -24648,7 +25195,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>151</v>
       </c>
@@ -24689,7 +25236,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>152</v>
       </c>
@@ -24730,7 +25277,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>153</v>
       </c>
@@ -24771,7 +25318,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>154</v>
       </c>
@@ -24812,7 +25359,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>155</v>
       </c>
@@ -24853,7 +25400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>156</v>
       </c>
@@ -24894,7 +25441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>157</v>
       </c>
@@ -24935,7 +25482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>158</v>
       </c>
@@ -24976,7 +25523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>159</v>
       </c>
@@ -25017,7 +25564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>160</v>
       </c>
@@ -25058,7 +25605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>161</v>
       </c>
@@ -25099,7 +25646,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>162</v>
       </c>
@@ -25140,7 +25687,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>163</v>
       </c>
@@ -25181,7 +25728,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>164</v>
       </c>
@@ -25222,7 +25769,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>165</v>
       </c>
@@ -25263,7 +25810,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>166</v>
       </c>
@@ -25304,7 +25851,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>167</v>
       </c>
@@ -25345,7 +25892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>168</v>
       </c>
@@ -25386,7 +25933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>169</v>
       </c>
@@ -25427,7 +25974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>170</v>
       </c>
@@ -25468,7 +26015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>171</v>
       </c>
@@ -25509,7 +26056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>172</v>
       </c>
@@ -25550,7 +26097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>173</v>
       </c>
@@ -25591,7 +26138,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>174</v>
       </c>
@@ -25632,7 +26179,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>175</v>
       </c>
@@ -25673,7 +26220,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>176</v>
       </c>
@@ -25714,7 +26261,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>177</v>
       </c>
@@ -25755,7 +26302,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>178</v>
       </c>
@@ -25796,7 +26343,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>179</v>
       </c>
@@ -25837,7 +26384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>180</v>
       </c>
@@ -25878,7 +26425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>181</v>
       </c>
@@ -25919,7 +26466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>182</v>
       </c>
@@ -25960,7 +26507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>183</v>
       </c>
@@ -26001,7 +26548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>184</v>
       </c>
@@ -26042,7 +26589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>185</v>
       </c>
@@ -26083,7 +26630,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>186</v>
       </c>
@@ -26124,7 +26671,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>187</v>
       </c>
@@ -26165,7 +26712,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>188</v>
       </c>
@@ -26206,7 +26753,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>189</v>
       </c>
@@ -26247,7 +26794,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>190</v>
       </c>
@@ -26288,7 +26835,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>191</v>
       </c>
@@ -26329,7 +26876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>192</v>
       </c>
@@ -26370,7 +26917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>193</v>
       </c>
@@ -26411,7 +26958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>194</v>
       </c>
@@ -26452,7 +26999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>195</v>
       </c>
@@ -26493,7 +27040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>196</v>
       </c>
@@ -26534,7 +27081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>197</v>
       </c>
@@ -26575,7 +27122,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>198</v>
       </c>
@@ -26616,7 +27163,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>199</v>
       </c>
@@ -26657,7 +27204,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>200</v>
       </c>
@@ -26698,7 +27245,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>201</v>
       </c>
@@ -26739,7 +27286,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>202</v>
       </c>
@@ -26780,7 +27327,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>203</v>
       </c>
@@ -26821,7 +27368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>204</v>
       </c>
@@ -26862,7 +27409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>205</v>
       </c>
@@ -26903,7 +27450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>206</v>
       </c>
@@ -26944,7 +27491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>207</v>
       </c>
@@ -26985,7 +27532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>208</v>
       </c>
@@ -27039,24 +27586,24 @@
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.73046875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.86328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="6" customWidth="1"/>
-    <col min="7" max="7" width="12.59765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="6" customWidth="1"/>
     <col min="10" max="10" width="11" style="6" customWidth="1"/>
-    <col min="11" max="11" width="12.73046875" style="6" customWidth="1"/>
-    <col min="12" max="13" width="11.86328125" style="6" customWidth="1"/>
-    <col min="14" max="16384" width="9.1328125" style="5"/>
+    <col min="11" max="11" width="12.7109375" style="6" customWidth="1"/>
+    <col min="12" max="13" width="11.85546875" style="6" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -27097,7 +27644,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
@@ -27138,7 +27685,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
@@ -27179,7 +27726,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
@@ -27220,7 +27767,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -27261,7 +27808,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -27302,7 +27849,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
@@ -27343,7 +27890,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
@@ -27384,7 +27931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
@@ -27425,7 +27972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>37</v>
       </c>
@@ -27466,7 +28013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
@@ -27507,7 +28054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
@@ -27548,7 +28095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>40</v>
       </c>
@@ -27589,7 +28136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>53</v>
       </c>
@@ -27630,7 +28177,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>54</v>
       </c>
@@ -27671,7 +28218,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>55</v>
       </c>
@@ -27712,7 +28259,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>56</v>
       </c>
@@ -27753,7 +28300,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>57</v>
       </c>
@@ -27794,7 +28341,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>58</v>
       </c>
@@ -27835,7 +28382,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>59</v>
       </c>
@@ -27876,7 +28423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>60</v>
       </c>
@@ -27917,7 +28464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>61</v>
       </c>
@@ -27958,7 +28505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>62</v>
       </c>
@@ -27999,7 +28546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>63</v>
       </c>
@@ -28040,7 +28587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>64</v>
       </c>
@@ -28081,7 +28628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>41</v>
       </c>
@@ -28122,7 +28669,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>42</v>
       </c>
@@ -28163,7 +28710,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>43</v>
       </c>
@@ -28204,7 +28751,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>44</v>
       </c>
@@ -28245,7 +28792,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>45</v>
       </c>
@@ -28286,7 +28833,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>46</v>
       </c>
@@ -28327,7 +28874,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>47</v>
       </c>
@@ -28368,7 +28915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>48</v>
       </c>
@@ -28409,7 +28956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>49</v>
       </c>
@@ -28450,7 +28997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>50</v>
       </c>
@@ -28491,7 +29038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>51</v>
       </c>
@@ -28532,7 +29079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>52</v>
       </c>
@@ -28573,7 +29120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>65</v>
       </c>
@@ -28614,7 +29161,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>66</v>
       </c>
@@ -28655,7 +29202,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>67</v>
       </c>
@@ -28696,7 +29243,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>68</v>
       </c>
@@ -28737,7 +29284,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>69</v>
       </c>
@@ -28778,7 +29325,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>70</v>
       </c>
@@ -28819,7 +29366,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>71</v>
       </c>
@@ -28860,7 +29407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>72</v>
       </c>
@@ -28901,7 +29448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>73</v>
       </c>
@@ -28942,7 +29489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>74</v>
       </c>
@@ -28983,7 +29530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>75</v>
       </c>
@@ -29024,7 +29571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>76</v>
       </c>
@@ -29065,7 +29612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>77</v>
       </c>
@@ -29106,7 +29653,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>78</v>
       </c>
@@ -29147,7 +29694,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>79</v>
       </c>
@@ -29188,7 +29735,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>80</v>
       </c>
@@ -29229,7 +29776,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>81</v>
       </c>
@@ -29270,7 +29817,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>82</v>
       </c>
@@ -29311,7 +29858,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>83</v>
       </c>
@@ -29352,7 +29899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>84</v>
       </c>
@@ -29393,7 +29940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>85</v>
       </c>
@@ -29434,7 +29981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>86</v>
       </c>
@@ -29475,7 +30022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>87</v>
       </c>
@@ -29516,7 +30063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>88</v>
       </c>
@@ -29557,7 +30104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>89</v>
       </c>
@@ -29598,7 +30145,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>90</v>
       </c>
@@ -29639,7 +30186,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>91</v>
       </c>
@@ -29680,7 +30227,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>92</v>
       </c>
@@ -29721,7 +30268,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>93</v>
       </c>
@@ -29762,7 +30309,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>94</v>
       </c>
@@ -29803,7 +30350,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>95</v>
       </c>
@@ -29844,7 +30391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>96</v>
       </c>
@@ -29885,7 +30432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>97</v>
       </c>
@@ -29926,7 +30473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>98</v>
       </c>
@@ -29967,7 +30514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>99</v>
       </c>
@@ -30008,7 +30555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>100</v>
       </c>
@@ -30049,7 +30596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>101</v>
       </c>
@@ -30090,7 +30637,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>102</v>
       </c>
@@ -30131,7 +30678,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>103</v>
       </c>
@@ -30172,7 +30719,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>104</v>
       </c>
@@ -30213,7 +30760,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>105</v>
       </c>
@@ -30254,7 +30801,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>106</v>
       </c>
@@ -30295,7 +30842,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>107</v>
       </c>
@@ -30336,7 +30883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>108</v>
       </c>
@@ -30377,7 +30924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>109</v>
       </c>
@@ -30418,7 +30965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>110</v>
       </c>
@@ -30459,7 +31006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>111</v>
       </c>
@@ -30500,7 +31047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>112</v>
       </c>
@@ -30541,7 +31088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>113</v>
       </c>
@@ -30582,7 +31129,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>114</v>
       </c>
@@ -30623,7 +31170,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>115</v>
       </c>
@@ -30664,7 +31211,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>116</v>
       </c>
@@ -30705,7 +31252,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>117</v>
       </c>
@@ -30746,7 +31293,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>118</v>
       </c>
@@ -30787,7 +31334,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>119</v>
       </c>
@@ -30828,7 +31375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>120</v>
       </c>
@@ -30869,7 +31416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>121</v>
       </c>
@@ -30910,7 +31457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>122</v>
       </c>
@@ -30951,7 +31498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>123</v>
       </c>
@@ -30992,7 +31539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>124</v>
       </c>
@@ -31033,7 +31580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>125</v>
       </c>
@@ -31074,7 +31621,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>126</v>
       </c>
@@ -31115,7 +31662,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>127</v>
       </c>
@@ -31156,7 +31703,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>128</v>
       </c>
@@ -31197,7 +31744,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>129</v>
       </c>
@@ -31238,7 +31785,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>130</v>
       </c>
@@ -31279,7 +31826,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>131</v>
       </c>
@@ -31320,7 +31867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>132</v>
       </c>
@@ -31361,7 +31908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>133</v>
       </c>
@@ -31402,7 +31949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>134</v>
       </c>
@@ -31443,7 +31990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>135</v>
       </c>
@@ -31484,7 +32031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>136</v>
       </c>
@@ -31525,7 +32072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>137</v>
       </c>
@@ -31566,7 +32113,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>138</v>
       </c>
@@ -31607,7 +32154,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>139</v>
       </c>
@@ -31648,7 +32195,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>140</v>
       </c>
@@ -31689,7 +32236,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>141</v>
       </c>
@@ -31730,7 +32277,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>142</v>
       </c>
@@ -31771,7 +32318,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>143</v>
       </c>
@@ -31812,7 +32359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>144</v>
       </c>
@@ -31853,7 +32400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>145</v>
       </c>
@@ -31894,7 +32441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>146</v>
       </c>
@@ -31935,7 +32482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>147</v>
       </c>
@@ -31976,7 +32523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>148</v>
       </c>
@@ -32017,7 +32564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>149</v>
       </c>
@@ -32058,7 +32605,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>150</v>
       </c>
@@ -32099,7 +32646,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>151</v>
       </c>
@@ -32140,7 +32687,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>152</v>
       </c>
@@ -32181,7 +32728,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>153</v>
       </c>
@@ -32222,7 +32769,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>154</v>
       </c>
@@ -32263,7 +32810,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>155</v>
       </c>
@@ -32304,7 +32851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>156</v>
       </c>
@@ -32345,7 +32892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>157</v>
       </c>
@@ -32386,7 +32933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>158</v>
       </c>
@@ -32427,7 +32974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>159</v>
       </c>
@@ -32468,7 +33015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>160</v>
       </c>
@@ -32509,7 +33056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>161</v>
       </c>
@@ -32550,7 +33097,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>162</v>
       </c>
@@ -32591,7 +33138,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>163</v>
       </c>
@@ -32632,7 +33179,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>164</v>
       </c>
@@ -32673,7 +33220,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>165</v>
       </c>
@@ -32714,7 +33261,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>166</v>
       </c>
@@ -32755,7 +33302,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>167</v>
       </c>
@@ -32796,7 +33343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>168</v>
       </c>
@@ -32837,7 +33384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>169</v>
       </c>
@@ -32878,7 +33425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>170</v>
       </c>
@@ -32919,7 +33466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>171</v>
       </c>
@@ -32960,7 +33507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>172</v>
       </c>
@@ -33001,7 +33548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>173</v>
       </c>
@@ -33042,7 +33589,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>174</v>
       </c>
@@ -33083,7 +33630,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>175</v>
       </c>
@@ -33124,7 +33671,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>176</v>
       </c>
@@ -33165,7 +33712,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>177</v>
       </c>
@@ -33206,7 +33753,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>178</v>
       </c>
@@ -33247,7 +33794,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>179</v>
       </c>
@@ -33288,7 +33835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>180</v>
       </c>
@@ -33329,7 +33876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>181</v>
       </c>
@@ -33370,7 +33917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>182</v>
       </c>
@@ -33411,7 +33958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>183</v>
       </c>
@@ -33452,7 +33999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>184</v>
       </c>
@@ -33493,7 +34040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>185</v>
       </c>
@@ -33534,7 +34081,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>186</v>
       </c>
@@ -33575,7 +34122,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>187</v>
       </c>
@@ -33616,7 +34163,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>188</v>
       </c>
@@ -33657,7 +34204,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>189</v>
       </c>
@@ -33698,7 +34245,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>190</v>
       </c>
@@ -33739,7 +34286,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>191</v>
       </c>
@@ -33780,7 +34327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>192</v>
       </c>
@@ -33821,7 +34368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>193</v>
       </c>
@@ -33862,7 +34409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>194</v>
       </c>
@@ -33903,7 +34450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>195</v>
       </c>
@@ -33944,7 +34491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>196</v>
       </c>
@@ -33985,7 +34532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>197</v>
       </c>
@@ -34026,7 +34573,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>198</v>
       </c>
@@ -34067,7 +34614,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>199</v>
       </c>
@@ -34108,7 +34655,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>200</v>
       </c>
@@ -34149,7 +34696,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>201</v>
       </c>
@@ -34190,7 +34737,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>202</v>
       </c>
@@ -34231,7 +34778,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>203</v>
       </c>
@@ -34272,7 +34819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>204</v>
       </c>
@@ -34313,7 +34860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>205</v>
       </c>
@@ -34354,7 +34901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>206</v>
       </c>
@@ -34395,7 +34942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>207</v>
       </c>
@@ -34436,7 +34983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>208</v>
       </c>

--- a/cea/databases/CH/Archetypes/Archetypes_properties.xlsx
+++ b/cea/databases/CH/Archetypes/Archetypes_properties.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16140" tabRatio="785" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16140" tabRatio="785" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ARCHITECTURE" sheetId="3" r:id="rId1"/>
@@ -16034,7 +16034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J217"/>
   <sheetViews>
-    <sheetView topLeftCell="A176" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="F206" sqref="F206"/>
     </sheetView>
   </sheetViews>
@@ -23532,7 +23532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
@@ -24166,7 +24166,7 @@
         <v>2</v>
       </c>
       <c r="J19" s="13">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -33232,7 +33232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+    <sheetView topLeftCell="A199" workbookViewId="0">
       <selection activeCell="A219" sqref="A219"/>
     </sheetView>
   </sheetViews>

--- a/cea/databases/CH/Archetypes/Archetypes_properties.xlsx
+++ b/cea/databases/CH/Archetypes/Archetypes_properties.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16140" tabRatio="785" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16140" tabRatio="785"/>
   </bookViews>
   <sheets>
     <sheet name="ARCHITECTURE" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="EMBODIED_ENERGY" sheetId="5" r:id="rId5"/>
     <sheet name="EMBODIED_EMISSIONS" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -1873,11 +1873,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O229"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -16742,7 +16742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
@@ -17150,7 +17150,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -17802,8 +17802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M217"/>
   <sheetViews>
-    <sheetView topLeftCell="A196" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A219" sqref="A219"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="M222" sqref="M222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
